--- a/data/sra_metadata/SRP199742_SLX15025_GEP00010.xlsx
+++ b/data/sra_metadata/SRP199742_SLX15025_GEP00010.xlsx
@@ -7,17 +7,18 @@
     <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736"/>
   </bookViews>
   <sheets>
-    <sheet name="Help" sheetId="10" r:id="rId1"/>
+    <sheet name="Help" sheetId="12" r:id="rId1"/>
     <sheet name="Target" sheetId="2" r:id="rId2"/>
     <sheet name="Guide" sheetId="3" r:id="rId3"/>
     <sheet name="Amplicon" sheetId="5" r:id="rId4"/>
     <sheet name="Layout" sheetId="6" r:id="rId5"/>
     <sheet name="Plate" sheetId="7" r:id="rId6"/>
     <sheet name="GuideMismatches" sheetId="4" r:id="rId7"/>
-    <sheet name="Menus" sheetId="9" r:id="rId8"/>
+    <sheet name="DesireEditedSequences" sheetId="11" r:id="rId8"/>
+    <sheet name="Menus" sheetId="9" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="283">
   <si>
     <t>description</t>
   </si>
@@ -263,9 +264,6 @@
     <t>Coordinate of the cut side of the guide</t>
   </si>
   <si>
-    <t>The DNA strand that contains the guide sequence, either forward or reverse</t>
-  </si>
-  <si>
     <t>Chromosome where the amplicon is located, as a numeric value, e.g. 17</t>
   </si>
   <si>
@@ -306,20 +304,6 @@
   </si>
   <si>
     <t>- empty-vector: A control with vector that harbours neither guide nor Cas9</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This ID must match </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Guide@name</t>
-    </r>
   </si>
   <si>
     <t>HUES9</t>
@@ -544,9 +528,6 @@
     </r>
   </si>
   <si>
-    <t>This corresponds to the name of the guide used to edit the cell clone and must match Guide@guide_name</t>
-  </si>
-  <si>
     <t>Name of the guide</t>
   </si>
   <si>
@@ -1389,6 +1370,81 @@
   </si>
   <si>
     <t>knock-in</t>
+  </si>
+  <si>
+    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAACGAGAGCGCGAAGCTAAAGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
+  </si>
+  <si>
+    <t>FTO_PAM_site</t>
+  </si>
+  <si>
+    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAATGAGAGCGCGAAGCTAAGGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
+  </si>
+  <si>
+    <t>FTO_target_site</t>
+  </si>
+  <si>
+    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAATGAGAGCGCGAAGCTAAAGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
+  </si>
+  <si>
+    <t>FTO_2_sites</t>
+  </si>
+  <si>
+    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAACGAGAGCGCGAAGCTAAGGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
+  </si>
+  <si>
+    <t>FTO_WT</t>
+  </si>
+  <si>
+    <t>sequence</t>
+  </si>
+  <si>
+    <t>sequence_name</t>
+  </si>
+  <si>
+    <t>The sequence</t>
+  </si>
+  <si>
+    <t>The name of the sequence</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DesireEditedSequences</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> is the list of sequence to count the reads against. If not provided, all sequences above a certain threshold will be considered for counting the reads.   </t>
+    </r>
+  </si>
+  <si>
+    <t>DesireEditedSequences</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This name must match </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Guide@name</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1937,7 +1993,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
-  <dxfs count="124">
+  <dxfs count="131">
     <dxf>
       <font>
         <b val="0"/>
@@ -1954,6 +2010,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1974,108 +2031,6 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -2085,1172 +2040,7 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
+        <sz val="14"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -3497,6 +2287,19 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -3562,19 +2365,6 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -3996,6 +2786,1376 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -4050,257 +4210,278 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:C12" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table229" displayName="Table229" ref="A4:C12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="123"/>
-    <tableColumn id="2" name="Column names" dataDxfId="122"/>
-    <tableColumn id="3" name="Description" dataDxfId="121"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="45"/>
+    <tableColumn id="2" name="Column names" dataDxfId="44"/>
+    <tableColumn id="3" name="Description" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Table50" displayName="Table50" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table5039" displayName="Table5039" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="86" dataDxfId="85"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="84" dataDxfId="83"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="82" dataDxfId="81"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="8" dataDxfId="7"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="6" dataDxfId="5"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="4" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table1240" displayName="Table1240" ref="A73:C76" totalsRowShown="0">
+  <tableColumns count="3">
+    <tableColumn id="1" name="Tab name" dataDxfId="2"/>
+    <tableColumn id="2" name="Column names" dataDxfId="1"/>
+    <tableColumn id="3" name="Description" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_name" dataDxfId="78"/>
-    <tableColumn id="2" name="target_genome" dataDxfId="77"/>
-    <tableColumn id="3" name="target_gene_id" dataDxfId="76"/>
-    <tableColumn id="4" name="target_chrom" dataDxfId="75"/>
-    <tableColumn id="5" name="target_start" dataDxfId="74"/>
-    <tableColumn id="6" name="target_end" dataDxfId="73"/>
-    <tableColumn id="7" name="target_strand" dataDxfId="72"/>
+    <tableColumn id="1" name="target_name" dataDxfId="128"/>
+    <tableColumn id="2" name="target_genome" dataDxfId="127"/>
+    <tableColumn id="3" name="target_gene_id" dataDxfId="126"/>
+    <tableColumn id="4" name="target_chrom" dataDxfId="125"/>
+    <tableColumn id="5" name="target_start" dataDxfId="124"/>
+    <tableColumn id="6" name="target_end" dataDxfId="123"/>
+    <tableColumn id="7" name="target_strand" dataDxfId="122"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
   <tableColumns count="1">
-    <tableColumn id="1" name="target_description" dataDxfId="69"/>
+    <tableColumn id="1" name="target_description" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
   <tableColumns count="3">
-    <tableColumn id="1" name="target_name" dataDxfId="66"/>
-    <tableColumn id="2" name="guide_name" dataDxfId="65"/>
-    <tableColumn id="3" name="guide_sequence" dataDxfId="64"/>
+    <tableColumn id="1" name="target_name" dataDxfId="116"/>
+    <tableColumn id="2" name="guide_name" dataDxfId="115"/>
+    <tableColumn id="3" name="guide_sequence" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="61"/>
-    <tableColumn id="2" name="guide_activity" dataDxfId="60"/>
-    <tableColumn id="3" name="guide_exon" dataDxfId="59"/>
-    <tableColumn id="4" name="guide_nuclease" dataDxfId="58"/>
+    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="111"/>
+    <tableColumn id="2" name="guide_activity" dataDxfId="110"/>
+    <tableColumn id="3" name="guide_exon" dataDxfId="109"/>
+    <tableColumn id="4" name="guide_nuclease" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="57" dataDxfId="56">
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <tableColumns count="13">
-    <tableColumn id="1" name="guide_name" dataDxfId="55"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="54"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="53"/>
-    <tableColumn id="4" name="guide_strand" dataDxfId="52"/>
-    <tableColumn id="5" name="is_on_target" dataDxfId="51"/>
-    <tableColumn id="6" name="dna_feature" dataDxfId="50"/>
-    <tableColumn id="7" name="chrom" dataDxfId="49"/>
-    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="48"/>
-    <tableColumn id="9" name="forward_primer_start" dataDxfId="47"/>
-    <tableColumn id="10" name="forward_primer_end" dataDxfId="46"/>
-    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="45"/>
-    <tableColumn id="12" name="reverse_primer_start" dataDxfId="44"/>
-    <tableColumn id="13" name="reverse_primer_end" dataDxfId="43"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="105"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="104"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="103"/>
+    <tableColumn id="4" name="guide_strand" dataDxfId="102"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="101"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="100"/>
+    <tableColumn id="7" name="chrom" dataDxfId="99"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="98"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="97"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="96"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="95"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="94"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <tableColumns count="2">
-    <tableColumn id="1" name="score" dataDxfId="40"/>
-    <tableColumn id="2" name="description" dataDxfId="39"/>
+    <tableColumn id="1" name="score" dataDxfId="90"/>
+    <tableColumn id="2" name="description" dataDxfId="89"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:D97" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
+<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:D97" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
   <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="36"/>
-    <tableColumn id="2" name="well_position" dataDxfId="35"/>
-    <tableColumn id="6" name="guide_name" dataDxfId="34"/>
-    <tableColumn id="13" name="sequencing_barcode" dataDxfId="33"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="86"/>
+    <tableColumn id="2" name="well_position" dataDxfId="85"/>
+    <tableColumn id="6" name="guide_name" dataDxfId="84"/>
+    <tableColumn id="13" name="sequencing_barcode" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="E1:N97" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
+<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="E1:N97" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <tableColumns count="10">
-    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="30"/>
-    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="29"/>
-    <tableColumn id="3" name="sequencing_library_type" dataDxfId="28"/>
-    <tableColumn id="4" name="sequencing_project_id" dataDxfId="27"/>
-    <tableColumn id="5" name="cell_line_name" dataDxfId="26"/>
-    <tableColumn id="6" name="cell_pool" dataDxfId="25"/>
-    <tableColumn id="7" name="clone_name" dataDxfId="24"/>
-    <tableColumn id="8" name="content_type" dataDxfId="23"/>
-    <tableColumn id="9" name="is_control" dataDxfId="22"/>
-    <tableColumn id="10" name="replicate_group" dataDxfId="21"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="18"/>
-    <tableColumn id="2" name="plate_name" dataDxfId="17"/>
-    <tableColumn id="5" name="plate_barcode" dataDxfId="16"/>
-    <tableColumn id="4" name="plate_description" dataDxfId="15"/>
+    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="80"/>
+    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="79"/>
+    <tableColumn id="3" name="sequencing_library_type" dataDxfId="78"/>
+    <tableColumn id="4" name="sequencing_project_id" dataDxfId="77"/>
+    <tableColumn id="5" name="cell_line_name" dataDxfId="76"/>
+    <tableColumn id="6" name="cell_pool" dataDxfId="75"/>
+    <tableColumn id="7" name="clone_name" dataDxfId="74"/>
+    <tableColumn id="8" name="content_type" dataDxfId="73"/>
+    <tableColumn id="9" name="is_control" dataDxfId="72"/>
+    <tableColumn id="10" name="replicate_group" dataDxfId="71"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A14:C18" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table330" displayName="Table330" ref="A14:C18" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="120"/>
-    <tableColumn id="2" name="Column names" dataDxfId="119"/>
-    <tableColumn id="3" name="Description" dataDxfId="118"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="42"/>
+    <tableColumn id="2" name="Column names" dataDxfId="41"/>
+    <tableColumn id="3" name="Description" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_name" dataDxfId="12"/>
-    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="11"/>
-    <tableColumn id="3" name="number_of_mismatches" dataDxfId="10"/>
-    <tableColumn id="4" name="number_of_off_targets" dataDxfId="9"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="68"/>
+    <tableColumn id="2" name="plate_name" dataDxfId="67"/>
+    <tableColumn id="5" name="plate_barcode" dataDxfId="66"/>
+    <tableColumn id="4" name="plate_description" dataDxfId="65"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+  <tableColumns count="4">
+    <tableColumn id="1" name="guide_name" dataDxfId="62"/>
+    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="61"/>
+    <tableColumn id="3" name="number_of_mismatches" dataDxfId="60"/>
+    <tableColumn id="4" name="number_of_off_targets" dataDxfId="59"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table111424" displayName="Table111424" ref="A1:B9" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <tableColumns count="2">
+    <tableColumn id="1" name="sequence_name" dataDxfId="49" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="sequence" dataDxfId="48" dataCellStyle="Normal"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_genome" dataDxfId="6"/>
-    <tableColumn id="2" name="strand" dataDxfId="5"/>
-    <tableColumn id="3" name="dna_feature" dataDxfId="4"/>
-    <tableColumn id="4" name="is_true_or_false" dataDxfId="3"/>
-    <tableColumn id="5" name="cell_line_name" dataDxfId="2"/>
-    <tableColumn id="6" name="content_type" dataDxfId="1"/>
-    <tableColumn id="7" name="sequencing_dna_source" dataDxfId="0"/>
+    <tableColumn id="1" name="target_genome" dataDxfId="56"/>
+    <tableColumn id="2" name="strand" dataDxfId="55"/>
+    <tableColumn id="3" name="dna_feature" dataDxfId="54"/>
+    <tableColumn id="4" name="is_true_or_false" dataDxfId="53"/>
+    <tableColumn id="5" name="cell_line_name" dataDxfId="52"/>
+    <tableColumn id="6" name="content_type" dataDxfId="51"/>
+    <tableColumn id="7" name="sequencing_dna_source" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A69:C74" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table431" displayName="Table431" ref="A67:C72" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="117"/>
-    <tableColumn id="2" name="Column names" dataDxfId="116"/>
-    <tableColumn id="3" name="Description" dataDxfId="115"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="39"/>
+    <tableColumn id="2" name="Column names" dataDxfId="38"/>
+    <tableColumn id="3" name="Description" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A23:C37" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table532" displayName="Table532" ref="A23:C36" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="114"/>
-    <tableColumn id="2" name="Column names" dataDxfId="113"/>
-    <tableColumn id="3" name="Description" dataDxfId="112"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="36"/>
+    <tableColumn id="2" name="Column names" dataDxfId="35"/>
+    <tableColumn id="3" name="Description" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A40:C45" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table633" displayName="Table633" ref="A39:C43" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="111"/>
-    <tableColumn id="2" name="Column names" dataDxfId="110"/>
-    <tableColumn id="3" name="Description" dataDxfId="109"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="33"/>
+    <tableColumn id="2" name="Column names" dataDxfId="32"/>
+    <tableColumn id="3" name="Description" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A63:C68" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table734" displayName="Table734" ref="A61:C66" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="108"/>
-    <tableColumn id="2" name="Column names" dataDxfId="107"/>
-    <tableColumn id="3" name="Description" dataDxfId="106"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="30"/>
+    <tableColumn id="2" name="Column names" dataDxfId="29"/>
+    <tableColumn id="3" name="Description" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table47" displayName="Table47" ref="A46:C62" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table4735" displayName="Table4735" ref="A44:C60" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="105" dataDxfId="104"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="103" dataDxfId="102"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="101" dataDxfId="100"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="27" dataDxfId="26"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="25" dataDxfId="24"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="23" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="99" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table4836" displayName="Table4836" ref="A37:C38" headerRowCount="0" totalsRowShown="0" dataDxfId="15" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="98" dataDxfId="97" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="96" dataDxfId="95" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="94" dataDxfId="93" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="21" dataDxfId="20" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="19" dataDxfId="18" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="17" dataDxfId="16" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Table49" displayName="Table49" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table4937" displayName="Table4937" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="92" dataDxfId="91"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="90" dataDxfId="89"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="88" dataDxfId="87"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="14" dataDxfId="13"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="12" dataDxfId="11"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="10" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4631,13 +4812,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C74"/>
+  <dimension ref="A1:C76"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -4647,28 +4828,28 @@
   <sheetData>
     <row r="1" spans="1:3" ht="32">
       <c r="A1" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" ht="20">
       <c r="A2" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B3" s="20"/>
       <c r="C3" s="20"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>63</v>
@@ -4682,7 +4863,7 @@
         <v>53</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4690,28 +4871,28 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>58</v>
@@ -4719,7 +4900,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>59</v>
@@ -4727,7 +4908,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>60</v>
@@ -4735,7 +4916,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>61</v>
@@ -4744,15 +4925,15 @@
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="11"/>
       <c r="B13" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>63</v>
@@ -4767,7 +4948,7 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -4775,7 +4956,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -4783,7 +4964,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -4796,39 +4977,39 @@
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>63</v>
@@ -4839,7 +5020,7 @@
     </row>
     <row r="24" spans="1:3" ht="30">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C24" s="13" t="s">
         <v>67</v>
@@ -4850,7 +5031,7 @@
         <v>4</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -4871,31 +5052,31 @@
     </row>
     <row r="28" spans="1:3">
       <c r="B28" s="3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>70</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" s="3" t="s">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>123</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="3" t="s">
-        <v>124</v>
+        <v>14</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>71</v>
@@ -4903,7 +5084,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="B32" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>72</v>
@@ -4911,7 +5092,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="B33" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>73</v>
@@ -4919,126 +5100,125 @@
     </row>
     <row r="34" spans="1:3">
       <c r="B34" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" s="8" customFormat="1">
+      <c r="A35" s="1"/>
       <c r="B35" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" s="8" customFormat="1">
-      <c r="A36" s="1"/>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
       <c r="B36" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" ht="15">
+      <c r="A37" s="2"/>
       <c r="B37" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>74</v>
+        <v>11</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C38" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30">
+      <c r="A40" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="B41" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" ht="15">
-      <c r="A39" s="2"/>
-      <c r="B39" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="30">
-      <c r="A41" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C41" s="13" t="s">
-        <v>128</v>
+      <c r="C41" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" s="3" t="s">
-        <v>142</v>
+        <v>20</v>
       </c>
       <c r="C42" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="B43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" s="8" customFormat="1">
-      <c r="A43" s="1"/>
-      <c r="B43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" s="3" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" s="3" t="s">
-        <v>28</v>
+        <v>94</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" s="3" t="s">
-        <v>95</v>
+        <v>29</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>133</v>
@@ -5046,202 +5226,221 @@
     </row>
     <row r="49" spans="1:3">
       <c r="B49" s="3" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="B50" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="B51" s="3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="B52" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>127</v>
+      <c r="B52" s="3"/>
+      <c r="C52" s="5" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="B53" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C53" s="4" t="s">
-        <v>126</v>
+      <c r="B53" s="3"/>
+      <c r="C53" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="B54" s="3"/>
       <c r="C54" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" s="3"/>
       <c r="C55" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="B56" s="3"/>
       <c r="C56" s="5" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="B57" s="3"/>
       <c r="C57" s="5" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="30" customHeight="1">
       <c r="B58" s="3"/>
       <c r="C58" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="B59" s="3"/>
-      <c r="C59" s="5" t="s">
-        <v>83</v>
+      <c r="B59" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="B60" s="3"/>
-      <c r="C60" s="5" t="s">
-        <v>84</v>
+      <c r="B60" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="B61" s="3" t="s">
-        <v>25</v>
+      <c r="A61" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C61" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="45">
+      <c r="A62" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="B63" s="3" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="B62" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C63" s="4" t="s">
-        <v>57</v>
+        <v>140</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" customHeight="1">
-      <c r="A64" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>140</v>
+      <c r="B64" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" s="3" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="B66" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>146</v>
-      </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="B67" s="3" t="s">
-        <v>27</v>
+      <c r="A67" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>148</v>
+        <v>57</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="B68" s="3" t="s">
-        <v>145</v>
+      <c r="A68" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>147</v>
+        <v>64</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>63</v>
+      <c r="B69" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="30" customHeight="1">
-      <c r="A70" s="1" t="s">
-        <v>55</v>
+        <v>282</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="B70" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="B71" s="3" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="B72" s="3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="B73" s="3" t="s">
-        <v>6</v>
+      <c r="A73" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="B74" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>66</v>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="30">
+      <c r="A74" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="B75" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="B76" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -5253,7 +5452,7 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <tableParts count="10">
+  <tableParts count="11">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -5264,6 +5463,7 @@
     <tablePart r:id="rId8"/>
     <tablePart r:id="rId9"/>
     <tablePart r:id="rId10"/>
+    <tablePart r:id="rId11"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5303,36 +5503,36 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>103</v>
-      </c>
       <c r="H1" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2">
         <v>16</v>
@@ -5347,7 +5547,7 @@
         <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5429,30 +5629,30 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E2" s="2">
         <v>90</v>
@@ -5461,7 +5661,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -5536,7 +5736,7 @@
         <v>13</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>14</v>
@@ -5565,10 +5765,10 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C2" s="2">
         <v>53704225</v>
@@ -5586,7 +5786,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I2" s="2">
         <v>53704130</v>
@@ -5595,7 +5795,7 @@
         <v>53704148</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="L2" s="14">
         <v>53704291</v>
@@ -5604,7 +5804,7 @@
         <v>53704310</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -5749,7 +5949,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>20</v>
@@ -5764,13 +5964,13 @@
         <v>29</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="H1" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>21</v>
@@ -5793,34 +5993,34 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L2" s="2" t="s">
         <v>42</v>
@@ -5834,34 +6034,34 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L3" s="2" t="s">
         <v>42</v>
@@ -5875,34 +6075,34 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="C4" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>42</v>
@@ -5916,34 +6116,34 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L5" s="2" t="s">
         <v>42</v>
@@ -5957,34 +6157,34 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>42</v>
@@ -5998,34 +6198,34 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L7" s="2" t="s">
         <v>42</v>
@@ -6039,34 +6239,34 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L8" s="2" t="s">
         <v>42</v>
@@ -6080,34 +6280,34 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L9" s="2" t="s">
         <v>42</v>
@@ -6121,34 +6321,34 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>42</v>
@@ -6162,34 +6362,34 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L11" s="2" t="s">
         <v>42</v>
@@ -6203,34 +6403,34 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L12" s="2" t="s">
         <v>42</v>
@@ -6244,34 +6444,34 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>42</v>
@@ -6285,34 +6485,34 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L14" s="2" t="s">
         <v>42</v>
@@ -6326,34 +6526,34 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>42</v>
@@ -6367,34 +6567,34 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>176</v>
-      </c>
       <c r="C16" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L16" s="2" t="s">
         <v>42</v>
@@ -6408,34 +6608,34 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L17" s="2" t="s">
         <v>42</v>
@@ -6449,34 +6649,34 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L18" s="2" t="s">
         <v>42</v>
@@ -6490,34 +6690,34 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L19" s="2" t="s">
         <v>42</v>
@@ -6531,34 +6731,34 @@
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L20" s="2" t="s">
         <v>42</v>
@@ -6572,34 +6772,34 @@
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L21" s="2" t="s">
         <v>42</v>
@@ -6613,34 +6813,34 @@
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L22" s="2" t="s">
         <v>42</v>
@@ -6654,34 +6854,34 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L23" s="2" t="s">
         <v>42</v>
@@ -6695,34 +6895,34 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L24" s="2" t="s">
         <v>42</v>
@@ -6736,34 +6936,34 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L25" s="2" t="s">
         <v>42</v>
@@ -6777,34 +6977,34 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L26" s="2" t="s">
         <v>42</v>
@@ -6818,34 +7018,34 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>42</v>
@@ -6859,34 +7059,34 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>42</v>
@@ -6900,34 +7100,34 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L29" s="2" t="s">
         <v>42</v>
@@ -6941,34 +7141,34 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L30" s="2" t="s">
         <v>42</v>
@@ -6982,34 +7182,34 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L31" s="2" t="s">
         <v>42</v>
@@ -7023,34 +7223,34 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="B32" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>189</v>
-      </c>
       <c r="C32" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L32" s="2" t="s">
         <v>42</v>
@@ -7064,34 +7264,34 @@
     </row>
     <row r="33" spans="1:14">
       <c r="A33" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L33" s="2" t="s">
         <v>42</v>
@@ -7105,34 +7305,34 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>46</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L34" s="2" t="s">
         <v>42</v>
@@ -7533,58 +7733,58 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="3" customFormat="1"/>
@@ -7642,7 +7842,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>37</v>
@@ -7656,7 +7856,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>38</v>
@@ -7699,6 +7899,93 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
+    <tabColor theme="6"/>
+  </sheetPr>
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="136.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15">
+      <c r="A1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15">
+      <c r="A2" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15">
+      <c r="A3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15">
+      <c r="A4" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15">
+      <c r="A5" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:2" ht="15">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:2" ht="15">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:2" ht="15">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="A1:H12"/>
@@ -7720,7 +8007,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -7729,7 +8016,7 @@
         <v>13</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>21</v>
@@ -7738,7 +8025,7 @@
         <v>26</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -7809,12 +8096,12 @@
         <v>41</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="E6" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>42</v>
@@ -7822,7 +8109,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="E7" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>43</v>
@@ -7830,7 +8117,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="E8" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>44</v>
@@ -7838,7 +8125,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="E9" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:8">

--- a/data/sra_metadata/SRP199742_SLX15025_GEP00010.xlsx
+++ b/data/sra_metadata/SRP199742_SLX15025_GEP00010.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736"/>
+    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="12" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="285">
   <si>
     <t>description</t>
   </si>
@@ -1445,6 +1445,12 @@
       </rPr>
       <t>Guide@name</t>
     </r>
+  </si>
+  <si>
+    <t>amplicon_name</t>
+  </si>
+  <si>
+    <t>FTO.9.in</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1586,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="189">
+  <cellStyleXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1770,8 +1776,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1792,6 +1806,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1802,7 +1817,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="189">
+  <cellStyles count="197">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1896,6 +1911,10 @@
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="42" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -1990,10 +2009,1414 @@
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
-  <dxfs count="131">
+  <dxfs count="133">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2287,19 +3710,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2365,6 +3775,19 @@
         <strike val="0"/>
         <condense val="0"/>
         <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -2786,1376 +4209,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -4212,9 +4265,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table229" displayName="Table229" ref="A4:C12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="45"/>
-    <tableColumn id="2" name="Column names" dataDxfId="44"/>
-    <tableColumn id="3" name="Description" dataDxfId="43"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="132"/>
+    <tableColumn id="2" name="Column names" dataDxfId="131"/>
+    <tableColumn id="3" name="Description" dataDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4223,9 +4276,9 @@
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table5039" displayName="Table5039" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="8" dataDxfId="7"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="6" dataDxfId="5"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="4" dataDxfId="3"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="95" dataDxfId="94"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="93" dataDxfId="92"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="91" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4234,117 +4287,118 @@
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table1240" displayName="Table1240" ref="A73:C76" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="2"/>
-    <tableColumn id="2" name="Column names" dataDxfId="1"/>
-    <tableColumn id="3" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="89"/>
+    <tableColumn id="2" name="Column names" dataDxfId="88"/>
+    <tableColumn id="3" name="Description" dataDxfId="87"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_name" dataDxfId="128"/>
-    <tableColumn id="2" name="target_genome" dataDxfId="127"/>
-    <tableColumn id="3" name="target_gene_id" dataDxfId="126"/>
-    <tableColumn id="4" name="target_chrom" dataDxfId="125"/>
-    <tableColumn id="5" name="target_start" dataDxfId="124"/>
-    <tableColumn id="6" name="target_end" dataDxfId="123"/>
-    <tableColumn id="7" name="target_strand" dataDxfId="122"/>
+    <tableColumn id="1" name="target_name" dataDxfId="84"/>
+    <tableColumn id="2" name="target_genome" dataDxfId="83"/>
+    <tableColumn id="3" name="target_gene_id" dataDxfId="82"/>
+    <tableColumn id="4" name="target_chrom" dataDxfId="81"/>
+    <tableColumn id="5" name="target_start" dataDxfId="80"/>
+    <tableColumn id="6" name="target_end" dataDxfId="79"/>
+    <tableColumn id="7" name="target_strand" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" headerRowDxfId="121" dataDxfId="120">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <tableColumns count="1">
-    <tableColumn id="1" name="target_description" dataDxfId="119"/>
+    <tableColumn id="1" name="target_description" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="118" dataDxfId="117">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <tableColumns count="3">
-    <tableColumn id="1" name="target_name" dataDxfId="116"/>
-    <tableColumn id="2" name="guide_name" dataDxfId="115"/>
-    <tableColumn id="3" name="guide_sequence" dataDxfId="114"/>
+    <tableColumn id="1" name="target_name" dataDxfId="72"/>
+    <tableColumn id="2" name="guide_name" dataDxfId="71"/>
+    <tableColumn id="3" name="guide_sequence" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="111"/>
-    <tableColumn id="2" name="guide_activity" dataDxfId="110"/>
-    <tableColumn id="3" name="guide_exon" dataDxfId="109"/>
-    <tableColumn id="4" name="guide_nuclease" dataDxfId="108"/>
+    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="67"/>
+    <tableColumn id="2" name="guide_activity" dataDxfId="66"/>
+    <tableColumn id="3" name="guide_exon" dataDxfId="65"/>
+    <tableColumn id="4" name="guide_nuclease" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
-  <tableColumns count="13">
-    <tableColumn id="1" name="guide_name" dataDxfId="105"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="104"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="103"/>
-    <tableColumn id="4" name="guide_strand" dataDxfId="102"/>
-    <tableColumn id="5" name="is_on_target" dataDxfId="101"/>
-    <tableColumn id="6" name="dna_feature" dataDxfId="100"/>
-    <tableColumn id="7" name="chrom" dataDxfId="99"/>
-    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="98"/>
-    <tableColumn id="9" name="forward_primer_start" dataDxfId="97"/>
-    <tableColumn id="10" name="forward_primer_end" dataDxfId="96"/>
-    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="95"/>
-    <tableColumn id="12" name="reverse_primer_start" dataDxfId="94"/>
-    <tableColumn id="13" name="reverse_primer_end" dataDxfId="93"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:N9" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <tableColumns count="14">
+    <tableColumn id="14" name="amplicon_name" dataDxfId="61"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="60"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="59"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="58"/>
+    <tableColumn id="4" name="guide_strand" dataDxfId="57"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="56"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="55"/>
+    <tableColumn id="7" name="chrom" dataDxfId="54"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="53"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="52"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="51"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="50"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="49"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="O1:P9" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <tableColumns count="2">
-    <tableColumn id="1" name="score" dataDxfId="90"/>
-    <tableColumn id="2" name="description" dataDxfId="89"/>
+    <tableColumn id="1" name="score" dataDxfId="45"/>
+    <tableColumn id="2" name="description" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:D97" totalsRowShown="0" headerRowDxfId="88" dataDxfId="87">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:D97" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
   <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="86"/>
-    <tableColumn id="2" name="well_position" dataDxfId="85"/>
-    <tableColumn id="6" name="guide_name" dataDxfId="84"/>
-    <tableColumn id="13" name="sequencing_barcode" dataDxfId="83"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="41"/>
+    <tableColumn id="2" name="well_position" dataDxfId="40"/>
+    <tableColumn id="6" name="guide_name" dataDxfId="39"/>
+    <tableColumn id="13" name="sequencing_barcode" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="E1:N97" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="E1:N97" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <tableColumns count="10">
-    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="80"/>
-    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="79"/>
-    <tableColumn id="3" name="sequencing_library_type" dataDxfId="78"/>
-    <tableColumn id="4" name="sequencing_project_id" dataDxfId="77"/>
-    <tableColumn id="5" name="cell_line_name" dataDxfId="76"/>
-    <tableColumn id="6" name="cell_pool" dataDxfId="75"/>
-    <tableColumn id="7" name="clone_name" dataDxfId="74"/>
-    <tableColumn id="8" name="content_type" dataDxfId="73"/>
-    <tableColumn id="9" name="is_control" dataDxfId="72"/>
-    <tableColumn id="10" name="replicate_group" dataDxfId="71"/>
+    <tableColumn id="1" name="sequencing_sample_name" dataDxfId="35"/>
+    <tableColumn id="2" name="sequencing_dna_source" dataDxfId="34"/>
+    <tableColumn id="3" name="sequencing_library_type" dataDxfId="33"/>
+    <tableColumn id="4" name="sequencing_project_id" dataDxfId="32"/>
+    <tableColumn id="5" name="cell_line_name" dataDxfId="31"/>
+    <tableColumn id="6" name="cell_pool" dataDxfId="30"/>
+    <tableColumn id="7" name="clone_name" dataDxfId="29"/>
+    <tableColumn id="8" name="content_type" dataDxfId="28"/>
+    <tableColumn id="9" name="is_control" dataDxfId="27"/>
+    <tableColumn id="10" name="replicate_group" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4353,58 +4407,59 @@
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table330" displayName="Table330" ref="A14:C18" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="42"/>
-    <tableColumn id="2" name="Column names" dataDxfId="41"/>
-    <tableColumn id="3" name="Description" dataDxfId="40"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="129"/>
+    <tableColumn id="2" name="Column names" dataDxfId="128"/>
+    <tableColumn id="3" name="Description" dataDxfId="127"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="51" name="Table51" displayName="Table51" ref="A1:D10" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="68"/>
-    <tableColumn id="2" name="plate_name" dataDxfId="67"/>
-    <tableColumn id="5" name="plate_barcode" dataDxfId="66"/>
-    <tableColumn id="4" name="plate_description" dataDxfId="65"/>
+    <tableColumn id="1" name="layout_id" dataDxfId="23"/>
+    <tableColumn id="2" name="plate_name" dataDxfId="22"/>
+    <tableColumn id="5" name="plate_barcode" dataDxfId="21"/>
+    <tableColumn id="4" name="plate_description" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="64" dataDxfId="63">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_name" dataDxfId="62"/>
-    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="61"/>
-    <tableColumn id="3" name="number_of_mismatches" dataDxfId="60"/>
-    <tableColumn id="4" name="number_of_off_targets" dataDxfId="59"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="17"/>
+    <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="16"/>
+    <tableColumn id="3" name="number_of_mismatches" dataDxfId="15"/>
+    <tableColumn id="4" name="number_of_off_targets" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table111424" displayName="Table111424" ref="A1:B9" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <tableColumns count="2">
-    <tableColumn id="1" name="sequence_name" dataDxfId="49" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="sequence" dataDxfId="48" dataCellStyle="Normal"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table111424" displayName="Table111424" ref="A1:C9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <tableColumns count="3">
+    <tableColumn id="3" name="amplicon_name" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="sequence_name" dataDxfId="10" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="sequence" dataDxfId="9" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G9" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_genome" dataDxfId="56"/>
-    <tableColumn id="2" name="strand" dataDxfId="55"/>
-    <tableColumn id="3" name="dna_feature" dataDxfId="54"/>
-    <tableColumn id="4" name="is_true_or_false" dataDxfId="53"/>
-    <tableColumn id="5" name="cell_line_name" dataDxfId="52"/>
-    <tableColumn id="6" name="content_type" dataDxfId="51"/>
-    <tableColumn id="7" name="sequencing_dna_source" dataDxfId="50"/>
+    <tableColumn id="1" name="target_genome" dataDxfId="6"/>
+    <tableColumn id="2" name="strand" dataDxfId="5"/>
+    <tableColumn id="3" name="dna_feature" dataDxfId="4"/>
+    <tableColumn id="4" name="is_true_or_false" dataDxfId="3"/>
+    <tableColumn id="5" name="cell_line_name" dataDxfId="2"/>
+    <tableColumn id="6" name="content_type" dataDxfId="1"/>
+    <tableColumn id="7" name="sequencing_dna_source" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4413,9 +4468,9 @@
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table431" displayName="Table431" ref="A67:C72" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="39"/>
-    <tableColumn id="2" name="Column names" dataDxfId="38"/>
-    <tableColumn id="3" name="Description" dataDxfId="37"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="126"/>
+    <tableColumn id="2" name="Column names" dataDxfId="125"/>
+    <tableColumn id="3" name="Description" dataDxfId="124"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4424,9 +4479,9 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table532" displayName="Table532" ref="A23:C36" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="36"/>
-    <tableColumn id="2" name="Column names" dataDxfId="35"/>
-    <tableColumn id="3" name="Description" dataDxfId="34"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="123"/>
+    <tableColumn id="2" name="Column names" dataDxfId="122"/>
+    <tableColumn id="3" name="Description" dataDxfId="121"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4435,9 +4490,9 @@
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table633" displayName="Table633" ref="A39:C43" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="33"/>
-    <tableColumn id="2" name="Column names" dataDxfId="32"/>
-    <tableColumn id="3" name="Description" dataDxfId="31"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="120"/>
+    <tableColumn id="2" name="Column names" dataDxfId="119"/>
+    <tableColumn id="3" name="Description" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4446,9 +4501,9 @@
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table734" displayName="Table734" ref="A61:C66" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="30"/>
-    <tableColumn id="2" name="Column names" dataDxfId="29"/>
-    <tableColumn id="3" name="Description" dataDxfId="28"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="117"/>
+    <tableColumn id="2" name="Column names" dataDxfId="116"/>
+    <tableColumn id="3" name="Description" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4457,20 +4512,20 @@
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table4735" displayName="Table4735" ref="A44:C60" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="27" dataDxfId="26"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="25" dataDxfId="24"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="23" dataDxfId="22"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="114" dataDxfId="113"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="112" dataDxfId="111"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="110" dataDxfId="109"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table4836" displayName="Table4836" ref="A37:C38" headerRowCount="0" totalsRowShown="0" dataDxfId="15" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table4836" displayName="Table4836" ref="A37:C38" headerRowCount="0" totalsRowShown="0" dataDxfId="108" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="21" dataDxfId="20" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="19" dataDxfId="18" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="17" dataDxfId="16" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="107" dataDxfId="106" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="105" dataDxfId="104" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="103" dataDxfId="102" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4479,9 +4534,9 @@
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table4937" displayName="Table4937" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="14" dataDxfId="13"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="12" dataDxfId="11"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="10" dataDxfId="9"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="101" dataDxfId="100"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="99" dataDxfId="98"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="97" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4814,7 +4869,7 @@
   </sheetPr>
   <dimension ref="A1:C76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
@@ -4827,25 +4882,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="32">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" ht="20">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="20" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
     </row>
     <row r="3" spans="1:3" ht="18">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>146</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
@@ -5480,7 +5535,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5696,21 +5751,21 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="2" customWidth="1"/>
-    <col min="15" max="15" width="31.83203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="14.83203125" style="2" customWidth="1"/>
     <col min="19" max="19" width="10.33203125" style="2" customWidth="1"/>
     <col min="20" max="16384" width="8.83203125" style="2"/>
@@ -5718,92 +5773,98 @@
   <sheetData>
     <row r="1" spans="1:17" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>53704225</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>16</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="I2" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>53704130</v>
       </c>
-      <c r="J2" s="14">
+      <c r="K2" s="14">
         <v>53704148</v>
       </c>
-      <c r="K2" s="14" t="s">
+      <c r="L2" s="14" t="s">
         <v>265</v>
       </c>
-      <c r="L2" s="14">
+      <c r="M2" s="14">
         <v>53704291</v>
       </c>
-      <c r="M2" s="14">
+      <c r="N2" s="14">
         <v>53704310</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="P2" s="14" t="s">
         <v>266</v>
       </c>
     </row>
@@ -5821,6 +5882,7 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="3"/>
@@ -5871,42 +5933,30 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F11 F14:F1048576</xm:sqref>
+          <xm:sqref>F14:F1048576 G2:G9 F10:F11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D2:D11 D14:D1048576</xm:sqref>
+          <xm:sqref>D14:D1048576 E2:E9 D10:D11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E2:E11 E14:E1048576</xm:sqref>
+          <xm:sqref>E14:E1048576 F2:F9 E10:E11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>[1]Menus!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>D13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Menus!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>F13</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Menus!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>G13</xm:sqref>
+          <xm:sqref>D13 F13:G13</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7901,73 +7951,91 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="136.83203125" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="129.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="15">
+      <c r="A1" s="18" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="15">
+      <c r="A2" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" ht="15">
+      <c r="A4" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" ht="15">
+      <c r="A5" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15">
-      <c r="A6" s="2"/>
+    <row r="6" spans="1:3" ht="15">
+      <c r="A6" s="18"/>
       <c r="B6" s="2"/>
-    </row>
-    <row r="7" spans="1:2" ht="15">
-      <c r="A7" s="2"/>
+      <c r="C6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="15">
+      <c r="A7" s="18"/>
       <c r="B7" s="2"/>
-    </row>
-    <row r="8" spans="1:2" ht="15">
-      <c r="A8" s="2"/>
+      <c r="C7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" ht="15">
+      <c r="A8" s="18"/>
       <c r="B8" s="2"/>
-    </row>
-    <row r="9" spans="1:2" ht="15">
-      <c r="A9" s="2"/>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="15">
+      <c r="A9" s="18"/>
       <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/sra_metadata/SRP199742_SLX15025_GEP00010.xlsx
+++ b/data/sra_metadata/SRP199742_SLX15025_GEP00010.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21721"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="736" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="16680" tabRatio="736" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Help" sheetId="12" r:id="rId1"/>
+    <sheet name="Help" sheetId="10" r:id="rId1"/>
     <sheet name="Target" sheetId="2" r:id="rId2"/>
     <sheet name="Guide" sheetId="3" r:id="rId3"/>
     <sheet name="Amplicon" sheetId="5" r:id="rId4"/>
@@ -17,10 +17,7 @@
     <sheet name="DesireEditedSequences" sheetId="11" r:id="rId8"/>
     <sheet name="Menus" sheetId="9" r:id="rId9"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId10"/>
-  </externalReferences>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="473">
   <si>
     <t>description</t>
   </si>
@@ -65,9 +62,6 @@
     <t>guide_location</t>
   </si>
   <si>
-    <t>guide_strand</t>
-  </si>
-  <si>
     <t>score</t>
   </si>
   <si>
@@ -179,19 +173,7 @@
     <t>non-fixed cells</t>
   </si>
   <si>
-    <t>MCF7</t>
-  </si>
-  <si>
-    <t>T47D</t>
-  </si>
-  <si>
     <t>Mus musculus [GRCm38]</t>
-  </si>
-  <si>
-    <t>MESC</t>
-  </si>
-  <si>
-    <t>A549</t>
   </si>
   <si>
     <t>Target</t>
@@ -304,18 +286,6 @@
   </si>
   <si>
     <t>- empty-vector: A control with vector that harbours neither guide nor Cas9</t>
-  </si>
-  <si>
-    <t>HUES9</t>
-  </si>
-  <si>
-    <t>ZRTamR</t>
-  </si>
-  <si>
-    <t>ZRTamS</t>
-  </si>
-  <si>
-    <t>HEK293T</t>
   </si>
   <si>
     <t>water</t>
@@ -352,6 +322,51 @@
     <t>Tab name</t>
   </si>
   <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>G12</t>
+  </si>
+  <si>
+    <t>H1</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>H3</t>
+  </si>
+  <si>
+    <t>H4</t>
+  </si>
+  <si>
+    <t>H5</t>
+  </si>
+  <si>
+    <t>H6</t>
+  </si>
+  <si>
+    <t>H7</t>
+  </si>
+  <si>
+    <t>H8</t>
+  </si>
+  <si>
+    <t>H9</t>
+  </si>
+  <si>
+    <t>H10</t>
+  </si>
+  <si>
+    <t>H11</t>
+  </si>
+  <si>
+    <t>H12</t>
+  </si>
+  <si>
+    <t>plate_01</t>
+  </si>
+  <si>
     <t>sequencing_dna_source</t>
   </si>
   <si>
@@ -917,495 +932,22 @@
     <t>Help to fill project's data and layout before uploading into the GenEditID Web App</t>
   </si>
   <si>
-    <t>FTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC_000016.10 </t>
-  </si>
-  <si>
-    <t>This gene is a nuclear protein of the AlkB related non-haem iron and 2-oxoglutarate-dependent oxygenase superfamily but the exact physiological function of this gene is not known. Other non-heme iron enzymes function to reverse alkylated DNA and RNA damage by oxidative demethylation. Studies in mice and humans indicate a role in nervous and cardiovascular systems and a strong association with body mass index, obesity risk, and type 2 diabetes.</t>
-  </si>
-  <si>
-    <t>FTO.9</t>
-  </si>
-  <si>
-    <t>GGAACGAGAGCGCGAAGCTAAGG</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>Cas9</t>
-  </si>
-  <si>
-    <t>GEP00010_01</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>A6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>A9</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B9</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>C6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>C9</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>D6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>D9</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>E7</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>F7</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>G7</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>H7</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>GEP00010_02</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>A4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>C4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>D4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>E2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>G2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>H2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>GEP00010_03</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>A7</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>E6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>F6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>G6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>H6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0329</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0353</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0330</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0354</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0331</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0355</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0332</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0356</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0341</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0342</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0343</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0344</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0193</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0217</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0194</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0218</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0195</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0219</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0196</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0220</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0205</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0206</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0207</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0208</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0233</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0234</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0235</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0236</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0237</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0238</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0239</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0240</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0241</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_1_A1</t>
-  </si>
-  <si>
-    <t>FTO_3_A1</t>
-  </si>
-  <si>
-    <t>FTO_1_B1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_3_B1</t>
-  </si>
-  <si>
-    <t>FTO_1_C1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_3_C1</t>
-  </si>
-  <si>
-    <t>FTO_1_D1</t>
-  </si>
-  <si>
-    <t>FTO_3_D1</t>
-  </si>
-  <si>
-    <t>FTO_2_A1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_2_B1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_2_C1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_2_D1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_1_A1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_3_A1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_1_B1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_3_B1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_1_C1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_3_C1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_1_D1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_3_D1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_2_A1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_2_B1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_2_C1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_2_D1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_A1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_B1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_C1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_D1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_E1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_F1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_G1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_H1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_A2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10H_P13_FTO</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fluidigm</t>
-  </si>
-  <si>
-    <t>SLX-15025</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>NGS_04</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>GEP00010_01_NGS</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pooled library will be temporarily stored, until sequencing library confirmed OK</t>
-  </si>
-  <si>
-    <t>NGS_03</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>GEP00010_02_NGS</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>GEP00010_03_NGS</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCCAGGGCGAGGGATCTAC</t>
-  </si>
-  <si>
-    <t>GCCATCAAACCAAGCCCTTC</t>
-  </si>
-  <si>
-    <t>Template preparation [Hotshot extracted gDNA from HUES9 POMC GFP 10H cell line,  use 6ul for PCR]. PCR mix composition [1 U FastStart (Roche), 200 uM dNTPs, 0.1 uM each primer, 4.5 mM MgCl2, 10 ng gDNA), amplification protocol (95C 2min, 40x (95C 20s, 64.4C 20s, 72C 15s), 72C 3 min for gDNA)]</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>knock-in</t>
   </si>
   <si>
-    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAACGAGAGCGCGAAGCTAAAGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
-  </si>
-  <si>
-    <t>FTO_PAM_site</t>
-  </si>
-  <si>
-    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAATGAGAGCGCGAAGCTAAGGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
-  </si>
-  <si>
-    <t>FTO_target_site</t>
-  </si>
-  <si>
-    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAATGAGAGCGCGAAGCTAAAGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
-  </si>
-  <si>
-    <t>FTO_2_sites</t>
-  </si>
-  <si>
-    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAACGAGAGCGCGAAGCTAAGGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
-  </si>
-  <si>
-    <t>FTO_WT</t>
+    <t>sequence_name</t>
   </si>
   <si>
     <t>sequence</t>
   </si>
   <si>
-    <t>sequence_name</t>
+    <t>DesireEditedSequences</t>
+  </si>
+  <si>
+    <t>The name of the sequence</t>
   </si>
   <si>
     <t>The sequence</t>
-  </si>
-  <si>
-    <t>The name of the sequence</t>
   </si>
   <si>
     <r>
@@ -1430,7 +972,10 @@
     </r>
   </si>
   <si>
-    <t>DesireEditedSequences</t>
+    <t>amplicon_name</t>
+  </si>
+  <si>
+    <t>The name of the Amplicon. This name must be unique within this project.</t>
   </si>
   <si>
     <r>
@@ -1443,21 +988,1202 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>Guide@name</t>
+      <t>Guide@guide_name</t>
     </r>
   </si>
   <si>
-    <t>amplicon_name</t>
+    <r>
+      <t>This name must match</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Amplicon@amplicon_name</t>
+    </r>
+  </si>
+  <si>
+    <t>FTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000016.10 </t>
+  </si>
+  <si>
+    <t>This gene is a nuclear protein of the AlkB related non-haem iron and 2-oxoglutarate-dependent oxygenase superfamily but the exact physiological function of this gene is not known. Other non-heme iron enzymes function to reverse alkylated DNA and RNA damage by oxidative demethylation. Studies in mice and humans indicate a role in nervous and cardiovascular systems and a strong association with body mass index, obesity risk, and type 2 diabetes.</t>
+  </si>
+  <si>
+    <t>LEPR</t>
+  </si>
+  <si>
+    <t>NC_000001.11</t>
+  </si>
+  <si>
+    <t>The protein encoded by this gene belongs to the gp130 family of cytokine receptors that are known to stimulate gene transcription via activation of cytosolic STAT proteins. This protein is a receptor for leptin (an adipocyte-specific hormone that regulates body weight), and is involved in the regulation of fat metabolism, as well as in a novel hematopoietic pathway that is required for normal lymphopoiesis. Mutations in this gene have been associated with obesity and pituitary dysfunction. Alternatively spliced transcript variants encoding different isoforms have been described for this gene.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR</t>
+  </si>
+  <si>
+    <t>NC_000004.12</t>
+  </si>
+  <si>
+    <t>This gene encodes a G-protein coupled receptor binds on-sulfated members of the cholecystokinin family</t>
+  </si>
+  <si>
+    <t>FTO.9</t>
+  </si>
+  <si>
+    <t>GGAACGAGAGCGCGAAGCTAAGG</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>Cas9</t>
+  </si>
+  <si>
+    <t>LEPR.1</t>
+  </si>
+  <si>
+    <t>CCTAACTGTGTAATTTCACTGAA</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR.1</t>
+  </si>
+  <si>
+    <t>CCAGTGAGATGTCCCCTGACCCT</t>
   </si>
   <si>
     <t>FTO.9.in</t>
+  </si>
+  <si>
+    <t>LEPR.1.in</t>
+  </si>
+  <si>
+    <t>CCKAR.1.in</t>
+  </si>
+  <si>
+    <t>TCCAGGGCGAGGGATCTAC</t>
+  </si>
+  <si>
+    <t>GCCATCAAACCAAGCCCTTC</t>
+  </si>
+  <si>
+    <t>Template preparation [Hotshot extracted gDNA from HUES9 POMC GFP 10H cell line,  use 6ul for PCR]. PCR mix composition [1 U FastStart (Roche), 200 uM dNTPs, 0.1 uM each primer, 4.5 mM MgCl2, 10 ng gDNA), amplification protocol (95C 2min, 40x (95C 20s, 64.4C 20s, 72C 15s), 72C 3 min for gDNA)]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCCAGGACAGTTGCTCACAC</t>
+  </si>
+  <si>
+    <t>TCTCTCTCCCACCCACAACT</t>
+  </si>
+  <si>
+    <t>TTCATGGCCACCTTCCCCT</t>
+  </si>
+  <si>
+    <t>TCTCCATCAGCTCTGCTCCT</t>
+  </si>
+  <si>
+    <t>GEP00010_01</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0329</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_1_A1</t>
+  </si>
+  <si>
+    <t>Fluidigm</t>
+  </si>
+  <si>
+    <t>SLX-15025</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUES9</t>
+  </si>
+  <si>
+    <t>10H_P13_FTO</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0330</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_1_B1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10H_P13_CCKAR</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0331</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_1_C1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10H_P13_LEPR</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0332</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_1_D1</t>
+  </si>
+  <si>
+    <t>A10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0333</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_1_E1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0334</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_1_F1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0335</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_1_A2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0336</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_1_B2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B9</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0337</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_1_C2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0338</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_1_D2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0339</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_1_E2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0340</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_1_F2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0341</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_2_A1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C9</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0342</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_2_B1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0343</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_2_C1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0344</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_2_D1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0345</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_2_E1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0346</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_2_F1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>D9</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0347</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_2_A2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>D10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0348</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_2_B2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>E6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0349</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_2_C2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>E7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0350</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_2_D2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>E8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0351</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_2_E2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>E9</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0352</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_2_F2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>F6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0353</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_3_A1</t>
+  </si>
+  <si>
+    <t>F7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0354</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_3_B1</t>
+  </si>
+  <si>
+    <t>F8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0355</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_3_C1</t>
+  </si>
+  <si>
+    <t>F9</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0356</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_3_D1</t>
+  </si>
+  <si>
+    <t>G6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0357</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_3_E1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>G7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0358</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_3_F1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>G8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0359</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_3_A2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>G9</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0360</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_3_B2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>H6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0361</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_3_C2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>H7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0362</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_3_D2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>H8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0363</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_3_E2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>H9</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0364</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_3_F2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEP00010_02</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0193</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_1_A1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0194</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_1_B1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0195</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_1_C1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0196</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_1_D1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0197</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_1_E1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0198</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_1_F1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0199</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_1_A2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0200</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_1_B2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0201</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_1_C2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0202</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_1_D2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0203</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_1_E2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0204</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_1_F2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0205</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_2_A1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0206</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_2_B1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0207</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_2_C1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0208</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_2_D1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0209</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_2_E1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0210</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_2_F1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0211</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_2_A2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0212</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_2_B2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0213</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_2_C2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0214</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_2_D2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>E3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0215</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_2_E2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0216</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_2_F2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>E5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0217</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_3_A1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0218</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_3_B1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0219</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_3_C1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0220</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_3_D1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>F4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0221</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_3_E1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0222</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_3_F1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0223</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_3_A2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0224</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_3_B2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>G4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0225</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_3_C2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0226</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_3_D2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0227</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_3_E2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>H3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0228</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_3_F2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>H4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0229</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_3_F2_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEP00010_03</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0233</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_A1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0234</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_B1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0235</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_C1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0236</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_D1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0237</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_E1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0238</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_F1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0239</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_G1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0240</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_H1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0241</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_A2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>NGS_04</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEP00010_01_NGS</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pooled library will be temporarily stored, until sequencing library confirmed OK</t>
+  </si>
+  <si>
+    <t>NGS_03</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEP00010_02_NGS</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEP00010_03_NGS</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR.1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR.1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_WT</t>
+  </si>
+  <si>
+    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAACGAGAGCGCGAAGCTAAGGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
+  </si>
+  <si>
+    <t>FTO_2_sites</t>
+  </si>
+  <si>
+    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAATGAGAGCGCGAAGCTAAAGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
+  </si>
+  <si>
+    <t>FTO_target_site</t>
+  </si>
+  <si>
+    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAATGAGAGCGCGAAGCTAAGGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
+  </si>
+  <si>
+    <t>FTO_PAM_site</t>
+  </si>
+  <si>
+    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAACGAGAGCGCGAAGCTAAAGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
+  </si>
+  <si>
+    <t>LEPR_WT</t>
+  </si>
+  <si>
+    <t>LEPR_2_sites</t>
+  </si>
+  <si>
+    <t>TACTCAGACTCATAAGATCATGGAAAACAAGATGTGTGATCTAACTGTGTAGTTTCACTGAAGAAACCTTCAGATTTGTGTTATAATGGG</t>
+  </si>
+  <si>
+    <t>TACTCAGACTCATAAGATCATGGAAAACAAGATGTGTGACCTAACTGTGTAGTTTCACTGAAGAAACCTTCAGATTTGTGTTATAATGGG</t>
+  </si>
+  <si>
+    <t>LEPR_PAM_site</t>
+  </si>
+  <si>
+    <t>TACTCAGACTCATAAGATCATGGAAAACAAGATGTGTGATCTAACTGTGTAATTTCACTGAAGAAACCTTCAGATTTGTGTTATAATGGG</t>
+  </si>
+  <si>
+    <t>CCTCCTCCCTGCCTTCCTTCTGCGGTGGAGGGTCAGGGGACATCTTACTGAGGTGGCACCGAGGCACTCATATGGCTGTACGAGAACCTG</t>
+  </si>
+  <si>
+    <t>CCTCCTCCCTGCCTTCCTTCTGCGGTGGAGGGTCAGGGGACATCTTACTGGGGTGGCACCGAGGCACTCATATGGCTGTACGAGAACCTG</t>
+  </si>
+  <si>
+    <t>CCKAR_PAM_site</t>
+  </si>
+  <si>
+    <t>CCTCCTCCCTGCCTTCCTTCTGCGGTGGAGGGTCAGGGGACATCTCACTGAGGTGGCACCGAGGCACTCATATGGCTGTACGAGAACCTG</t>
+  </si>
+  <si>
+    <t>SLX-15025</t>
+  </si>
+  <si>
+    <t>TACTCAGACTCATAAGATCATGGAAAACAAGATGTGTGACCTAACTGTGTAATTTCACTGAAGAAACCTTCAGATTTGTGTTATAATGGG</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_target_site</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_WT</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTCCTCCCTGCCTTCCTTCTGCGGTGGAGGGTCAGGGGACATCTCACTGGGGTGGCACCGAGGCACTCATATGGCTGTACGAGAACCTG</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_2_site</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_target_site</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1553,6 +2279,18 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1563,12 +2301,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1585,8 +2323,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="197">
+  <cellStyleXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1784,8 +2537,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1804,9 +2565,10 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="41" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1817,7 +2579,7 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="197">
+  <cellStyles count="205">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1915,6 +2677,10 @@
     <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Heading 1" xfId="42" builtinId="16"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
@@ -2013,10 +2779,14 @@
     <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Title" xfId="41" builtinId="15"/>
   </cellStyles>
-  <dxfs count="133">
+  <dxfs count="131">
     <dxf>
       <font>
         <b val="0"/>
@@ -2182,45 +2952,69 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2452,7 +3246,6 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -2694,6 +3487,23 @@
     </dxf>
     <dxf>
       <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -2711,7 +3521,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -2745,58 +3555,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <condense val="0"/>
@@ -4227,159 +4986,170 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Documentation"/>
-      <sheetName val="Project"/>
-      <sheetName val="Target"/>
-      <sheetName val="Guide"/>
-      <sheetName val="GuideMismatches"/>
-      <sheetName val="AmpliconSelection"/>
-      <sheetName val="ExperimentLayout"/>
-      <sheetName val="V2"/>
-      <sheetName val="Plate"/>
-      <sheetName val="SequencingLibrary"/>
-      <sheetName val="SL V2"/>
-      <sheetName val="Menus"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>843922</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Picture 51" descr="amplicon.pptx.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="14372" t="18488" r="13531" b="23692"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3009900" y="1866900"/>
+          <a:ext cx="10330822" cy="5854700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table229" displayName="Table229" ref="A4:C12" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A4:C12" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="132"/>
-    <tableColumn id="2" name="Column names" dataDxfId="131"/>
-    <tableColumn id="3" name="Description" dataDxfId="130"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="130"/>
+    <tableColumn id="2" name="Column names" dataDxfId="129"/>
+    <tableColumn id="3" name="Description" dataDxfId="128"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="19" name="Table5039" displayName="Table5039" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="50" name="Table50" displayName="Table50" ref="A13:C13" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="95" dataDxfId="94"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="93" dataDxfId="92"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="91" dataDxfId="90"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="93" dataDxfId="92"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="91" dataDxfId="90"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="89" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="22" name="Table1240" displayName="Table1240" ref="A73:C76" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table12" displayName="Table12" ref="A74:C78" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="89"/>
-    <tableColumn id="2" name="Column names" dataDxfId="88"/>
-    <tableColumn id="3" name="Description" dataDxfId="87"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="87"/>
+    <tableColumn id="2" name="Column names" dataDxfId="86"/>
+    <tableColumn id="3" name="Description" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="86" dataDxfId="85">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="20" name="Table20" displayName="Table20" ref="A1:G10" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <tableColumns count="7">
-    <tableColumn id="1" name="target_name" dataDxfId="84"/>
-    <tableColumn id="2" name="target_genome" dataDxfId="83"/>
-    <tableColumn id="3" name="target_gene_id" dataDxfId="82"/>
-    <tableColumn id="4" name="target_chrom" dataDxfId="81"/>
-    <tableColumn id="5" name="target_start" dataDxfId="80"/>
-    <tableColumn id="6" name="target_end" dataDxfId="79"/>
-    <tableColumn id="7" name="target_strand" dataDxfId="78"/>
+    <tableColumn id="1" name="target_name" dataDxfId="82"/>
+    <tableColumn id="2" name="target_genome" dataDxfId="81"/>
+    <tableColumn id="3" name="target_gene_id" dataDxfId="80"/>
+    <tableColumn id="4" name="target_chrom" dataDxfId="79"/>
+    <tableColumn id="5" name="target_start" dataDxfId="78"/>
+    <tableColumn id="6" name="target_end" dataDxfId="77"/>
+    <tableColumn id="7" name="target_strand" dataDxfId="76"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="37" name="Table37" displayName="Table37" ref="H1:H10" totalsRowShown="0" headerRowDxfId="75" dataDxfId="74">
   <tableColumns count="1">
-    <tableColumn id="1" name="target_description" dataDxfId="75"/>
+    <tableColumn id="1" name="target_description" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="21" name="Table21" displayName="Table21" ref="A1:C10" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
   <tableColumns count="3">
-    <tableColumn id="1" name="target_name" dataDxfId="72"/>
-    <tableColumn id="2" name="guide_name" dataDxfId="71"/>
-    <tableColumn id="3" name="guide_sequence" dataDxfId="70"/>
+    <tableColumn id="1" name="target_name" dataDxfId="70"/>
+    <tableColumn id="2" name="guide_name" dataDxfId="69"/>
+    <tableColumn id="3" name="guide_sequence" dataDxfId="68"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="41" name="Table41" displayName="Table41" ref="D1:G10" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66">
   <tableColumns count="4">
-    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="67"/>
-    <tableColumn id="2" name="guide_activity" dataDxfId="66"/>
-    <tableColumn id="3" name="guide_exon" dataDxfId="65"/>
-    <tableColumn id="4" name="guide_nuclease" dataDxfId="64"/>
+    <tableColumn id="1" name="guide_pam_sequence" dataDxfId="65"/>
+    <tableColumn id="2" name="guide_activity" dataDxfId="64"/>
+    <tableColumn id="3" name="guide_exon" dataDxfId="63"/>
+    <tableColumn id="4" name="guide_nuclease" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:N9" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <tableColumns count="14">
-    <tableColumn id="14" name="amplicon_name" dataDxfId="61"/>
-    <tableColumn id="1" name="guide_name" dataDxfId="60"/>
-    <tableColumn id="2" name="experiment_type" dataDxfId="59"/>
-    <tableColumn id="3" name="guide_location" dataDxfId="58"/>
-    <tableColumn id="4" name="guide_strand" dataDxfId="57"/>
-    <tableColumn id="5" name="is_on_target" dataDxfId="56"/>
-    <tableColumn id="6" name="dna_feature" dataDxfId="55"/>
-    <tableColumn id="7" name="chrom" dataDxfId="54"/>
-    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="53"/>
-    <tableColumn id="9" name="forward_primer_start" dataDxfId="52"/>
-    <tableColumn id="10" name="forward_primer_end" dataDxfId="51"/>
-    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="50"/>
-    <tableColumn id="12" name="reverse_primer_start" dataDxfId="49"/>
-    <tableColumn id="13" name="reverse_primer_end" dataDxfId="48"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="42" name="Table42" displayName="Table42" ref="A1:M9" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+  <tableColumns count="13">
+    <tableColumn id="4" name="amplicon_name" dataDxfId="59"/>
+    <tableColumn id="1" name="guide_name" dataDxfId="58"/>
+    <tableColumn id="2" name="experiment_type" dataDxfId="57"/>
+    <tableColumn id="3" name="guide_location" dataDxfId="56"/>
+    <tableColumn id="5" name="is_on_target" dataDxfId="55"/>
+    <tableColumn id="6" name="dna_feature" dataDxfId="54"/>
+    <tableColumn id="7" name="chrom" dataDxfId="53"/>
+    <tableColumn id="8" name="forward_primer_sequence" dataDxfId="52"/>
+    <tableColumn id="9" name="forward_primer_start" dataDxfId="51"/>
+    <tableColumn id="10" name="forward_primer_end" dataDxfId="50"/>
+    <tableColumn id="11" name="reverse_primer_sequence" dataDxfId="49"/>
+    <tableColumn id="12" name="reverse_primer_start" dataDxfId="48"/>
+    <tableColumn id="13" name="reverse_primer_end" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="O1:P9" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="43" name="Table43" displayName="Table43" ref="N1:O9" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <tableColumns count="2">
-    <tableColumn id="1" name="score" dataDxfId="45"/>
-    <tableColumn id="2" name="description" dataDxfId="44"/>
+    <tableColumn id="1" name="score" dataDxfId="44"/>
+    <tableColumn id="2" name="description" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:D97" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
-  <tableColumns count="4">
-    <tableColumn id="1" name="layout_id" dataDxfId="41"/>
-    <tableColumn id="2" name="well_position" dataDxfId="40"/>
-    <tableColumn id="6" name="guide_name" dataDxfId="39"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="44" name="Table44" displayName="Table44" ref="A1:C97" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+  <tableColumns count="3">
+    <tableColumn id="1" name="layout_id" dataDxfId="40"/>
+    <tableColumn id="2" name="well_position" dataDxfId="39"/>
     <tableColumn id="13" name="sequencing_barcode" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4387,7 +5157,7 @@
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="E1:N97" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="46" name="Table46" displayName="Table46" ref="D1:M97" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <tableColumns count="10">
     <tableColumn id="1" name="sequencing_sample_name" dataDxfId="35"/>
     <tableColumn id="2" name="sequencing_dna_source" dataDxfId="34"/>
@@ -4405,11 +5175,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table330" displayName="Table330" ref="A14:C18" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A14:C18" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="129"/>
-    <tableColumn id="2" name="Column names" dataDxfId="128"/>
-    <tableColumn id="3" name="Description" dataDxfId="127"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="127"/>
+    <tableColumn id="2" name="Column names" dataDxfId="126"/>
+    <tableColumn id="3" name="Description" dataDxfId="125"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4428,7 +5198,7 @@
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D11" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="18" name="Table18" displayName="Table18" ref="A1:D19" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <tableColumns count="4">
     <tableColumn id="1" name="guide_name" dataDxfId="17"/>
     <tableColumn id="2" name="is_off_target_coding_region" dataDxfId="16"/>
@@ -4440,9 +5210,9 @@
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table111424" displayName="Table111424" ref="A1:C9" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table119" displayName="Table119" ref="A1:C14" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12" headerRowCellStyle="Normal" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="3" name="amplicon_name" dataDxfId="11" dataCellStyle="Normal"/>
+    <tableColumn id="4" name="amplicon_name" dataDxfId="11" dataCellStyle="Normal"/>
     <tableColumn id="1" name="sequence_name" dataDxfId="10" dataCellStyle="Normal"/>
     <tableColumn id="2" name="sequence" dataDxfId="9" dataCellStyle="Normal"/>
   </tableColumns>
@@ -4457,7 +5227,7 @@
     <tableColumn id="2" name="strand" dataDxfId="5"/>
     <tableColumn id="3" name="dna_feature" dataDxfId="4"/>
     <tableColumn id="4" name="is_true_or_false" dataDxfId="3"/>
-    <tableColumn id="5" name="cell_line_name" dataDxfId="2"/>
+    <tableColumn id="5" name="experiment_type" dataDxfId="2"/>
     <tableColumn id="6" name="content_type" dataDxfId="1"/>
     <tableColumn id="7" name="sequencing_dna_source" dataDxfId="0"/>
   </tableColumns>
@@ -4466,77 +5236,77 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table431" displayName="Table431" ref="A67:C72" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A68:C73" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="126"/>
-    <tableColumn id="2" name="Column names" dataDxfId="125"/>
-    <tableColumn id="3" name="Description" dataDxfId="124"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="124"/>
+    <tableColumn id="2" name="Column names" dataDxfId="123"/>
+    <tableColumn id="3" name="Description" dataDxfId="122"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table532" displayName="Table532" ref="A23:C36" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A23:C37" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="123"/>
-    <tableColumn id="2" name="Column names" dataDxfId="122"/>
-    <tableColumn id="3" name="Description" dataDxfId="121"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="121"/>
+    <tableColumn id="2" name="Column names" dataDxfId="120"/>
+    <tableColumn id="3" name="Description" dataDxfId="119"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table633" displayName="Table633" ref="A39:C43" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A40:C44" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="120"/>
-    <tableColumn id="2" name="Column names" dataDxfId="119"/>
-    <tableColumn id="3" name="Description" dataDxfId="118"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="118"/>
+    <tableColumn id="2" name="Column names" dataDxfId="117"/>
+    <tableColumn id="3" name="Description" dataDxfId="116"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table734" displayName="Table734" ref="A61:C66" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table7" displayName="Table7" ref="A62:C67" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Tab name" dataDxfId="117"/>
-    <tableColumn id="2" name="Column names" dataDxfId="116"/>
-    <tableColumn id="3" name="Description" dataDxfId="115"/>
+    <tableColumn id="1" name="Tab name" dataDxfId="115"/>
+    <tableColumn id="2" name="Column names" dataDxfId="114"/>
+    <tableColumn id="3" name="Description" dataDxfId="113"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table4735" displayName="Table4735" ref="A44:C60" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="47" name="Table47" displayName="Table47" ref="A45:C61" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="114" dataDxfId="113"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="112" dataDxfId="111"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="110" dataDxfId="109"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="112" dataDxfId="111"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="110" dataDxfId="109"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="108" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table4836" displayName="Table4836" ref="A37:C38" headerRowCount="0" totalsRowShown="0" dataDxfId="108" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="48" name="Table48" displayName="Table48" ref="A38:C39" headerRowCount="0" totalsRowShown="0" dataDxfId="106" dataCellStyle="Normal">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="107" dataDxfId="106" dataCellStyle="Normal"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="105" dataDxfId="104" dataCellStyle="Normal"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="103" dataDxfId="102" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="105" dataDxfId="104" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="103" dataDxfId="102" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="101" dataDxfId="100" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="17" name="Table4937" displayName="Table4937" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="49" name="Table49" displayName="Table49" ref="A19:C22" headerRowCount="0" totalsRowShown="0">
   <tableColumns count="3">
-    <tableColumn id="1" name="Column1" headerRowDxfId="101" dataDxfId="100"/>
-    <tableColumn id="2" name="Column2" headerRowDxfId="99" dataDxfId="98"/>
-    <tableColumn id="3" name="Column3" headerRowDxfId="97" dataDxfId="96"/>
+    <tableColumn id="1" name="Column1" headerRowDxfId="99" dataDxfId="98"/>
+    <tableColumn id="2" name="Column2" headerRowDxfId="97" dataDxfId="96"/>
+    <tableColumn id="3" name="Column3" headerRowDxfId="95" dataDxfId="94"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4867,13 +5637,13 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="3" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A1:C76"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="17" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="17" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -4882,43 +5652,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="32">
-      <c r="A1" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="20">
-      <c r="A2" s="20" t="s">
-        <v>149</v>
-      </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
+      <c r="A2" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:3" ht="18">
-      <c r="A3" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="A3" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="6" customFormat="1" ht="30" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -4926,84 +5696,84 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="11"/>
       <c r="B13" s="11" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="6" customFormat="1" ht="18" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="30" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="10" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5011,7 +5781,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5019,7 +5789,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5027,264 +5797,264 @@
         <v>3</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>111</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30">
       <c r="A24" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="B25" s="3" t="s">
-        <v>4</v>
+        <v>163</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>114</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="B26" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>68</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="B27" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="B28" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>113</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="B29" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="B30" s="3" t="s">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="3" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="B32" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="B33" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="B34" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3" s="8" customFormat="1">
       <c r="A35" s="1"/>
       <c r="B35" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="B36" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15">
-      <c r="A37" s="2"/>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="B37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>136</v>
+        <v>18</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
       <c r="A38" s="2"/>
       <c r="B38" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15">
+      <c r="A39" s="2"/>
+      <c r="B39" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="30">
+      <c r="C39" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
       <c r="A40" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>126</v>
+        <v>83</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30">
+      <c r="A41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" s="3" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="B43" s="3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>129</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="B44" s="3" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" s="3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" s="3" t="s">
-        <v>29</v>
+        <v>100</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" s="3" t="s">
-        <v>95</v>
+        <v>28</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" s="3" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="B49" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -5292,65 +6062,65 @@
         <v>22</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="B51" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="B52" s="3"/>
-      <c r="C52" s="5" t="s">
-        <v>77</v>
+      <c r="B52" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="B53" s="3"/>
       <c r="C53" s="5" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="B54" s="3"/>
       <c r="C54" s="5" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="B55" s="3"/>
       <c r="C55" s="5" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="B56" s="3"/>
       <c r="C56" s="5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="B57" s="3"/>
       <c r="C57" s="5" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="30" customHeight="1">
       <c r="B58" s="3"/>
       <c r="C58" s="5" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="B59" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>135</v>
+      <c r="B59" s="3"/>
+      <c r="C59" s="5" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -5358,144 +6128,160 @@
         <v>24</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>63</v>
+      <c r="B61" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" ht="45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
       <c r="A62" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="B63" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>140</v>
+        <v>83</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="45">
+      <c r="A63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" customHeight="1">
       <c r="B64" s="3" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" s="3" t="s">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="B66" s="3" t="s">
-        <v>142</v>
+        <v>26</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>63</v>
+      <c r="B67" s="3" t="s">
+        <v>148</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>57</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="1" t="s">
-        <v>55</v>
+        <v>83</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="B69" s="3" t="s">
-        <v>4</v>
+      <c r="A69" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>282</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="B70" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="B71" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="B72" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="B73" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C72" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="C73" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" ht="30">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
       <c r="A74" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="B75" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>279</v>
+        <v>83</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="30">
+      <c r="A75" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="B76" s="9" t="s">
-        <v>276</v>
+      <c r="B76" s="3" t="s">
+        <v>163</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>278</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="B77" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="B78" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5558,36 +6344,36 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>102</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="D2" s="2">
         <v>16</v>
@@ -5599,10 +6385,62 @@
         <v>54114467</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>65420652</v>
+      </c>
+      <c r="F3" s="2">
+        <v>65637493</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" s="2">
+        <v>4</v>
+      </c>
+      <c r="E4" s="2">
+        <v>26481396</v>
+      </c>
+      <c r="F4" s="2">
+        <v>26490420</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>152</v>
+      <c r="H4" s="2" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5627,22 +6465,6 @@
     <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Menus!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>G3:G1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Menus!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -5655,7 +6477,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5684,30 +6506,30 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>155</v>
+        <v>178</v>
       </c>
       <c r="E2" s="2">
         <v>90</v>
@@ -5716,7 +6538,47 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>156</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E3" s="2">
+        <v>100</v>
+      </c>
+      <c r="F3" s="2">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="E4" s="2">
+        <v>100</v>
+      </c>
+      <c r="F4" s="2">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -5743,7 +6605,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5755,25 +6617,24 @@
     <col min="2" max="2" width="13" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="28.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="14.83203125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="10.33203125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="8.83203125" style="2"/>
+    <col min="5" max="5" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="17" width="14.83203125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="10.33203125" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="3" customFormat="1">
+    <row r="1" spans="1:15" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>283</v>
+        <v>163</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
@@ -5785,16 +6646,16 @@
         <v>9</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>121</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>14</v>
@@ -5812,63 +6673,145 @@
         <v>18</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>284</v>
+        <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>267</v>
+        <v>156</v>
       </c>
       <c r="D2" s="2">
         <v>53704225</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H2" s="2">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2">
         <v>16</v>
       </c>
-      <c r="I2" s="14" t="s">
-        <v>264</v>
-      </c>
-      <c r="J2" s="2">
+      <c r="H2" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="I2" s="2">
         <v>53704130</v>
       </c>
-      <c r="K2" s="14">
+      <c r="J2" s="19">
         <v>53704148</v>
       </c>
-      <c r="L2" s="14" t="s">
-        <v>265</v>
-      </c>
-      <c r="M2" s="14">
+      <c r="K2" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="L2" s="19">
         <v>53704291</v>
       </c>
-      <c r="N2" s="14">
+      <c r="M2" s="19">
         <v>53704310</v>
       </c>
-      <c r="P2" s="14" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="O2" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D3" s="2">
+        <v>65637008</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="I3" s="2">
+        <v>65637123</v>
+      </c>
+      <c r="J3" s="2">
+        <v>65637142</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="L3" s="2">
+        <v>65637077</v>
+      </c>
+      <c r="M3" s="2">
+        <v>65637096</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" s="2">
+        <v>26481627</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="2">
+        <v>4</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" s="2">
+        <v>26481482</v>
+      </c>
+      <c r="J4" s="2">
+        <v>26481500</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L4" s="2">
+        <v>26481710</v>
+      </c>
+      <c r="M4" s="2">
+        <v>26481729</v>
+      </c>
+      <c r="O4" s="14" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -5882,44 +6825,8 @@
       <c r="K9" s="7"/>
       <c r="L9" s="7"/>
       <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-    </row>
-    <row r="13" spans="1:17">
-      <c r="C13" s="16"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-    </row>
+    </row>
+    <row r="10" spans="1:15" s="3" customFormat="1"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -5927,36 +6834,31 @@
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
   <tableParts count="2">
-    <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$C$2:$C$4</xm:f>
           </x14:formula1>
-          <xm:sqref>F14:F1048576 G2:G9 F10:F11</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Menus!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>D14:D1048576 E2:E9 D10:D11</xm:sqref>
+          <xm:sqref>F2:F9 E11:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Menus!$D$2:$D$3</xm:f>
           </x14:formula1>
-          <xm:sqref>E14:E1048576 F2:F9 E10:E11</xm:sqref>
+          <xm:sqref>E2:E9 D11:D1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>[1]Menus!#REF!</xm:f>
+            <xm:f>Menus!$E$2:$E$3</xm:f>
           </x14:formula1>
-          <xm:sqref>D13 F13:G13</xm:sqref>
+          <xm:sqref>B11:B1048576 C5:C9</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5972,7 +6874,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:N97"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5980,47 +6882,46 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="12.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.83203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="27.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="25.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="18" style="2" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="15.33203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="18.83203125" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="8.83203125" style="2"/>
+    <col min="3" max="3" width="21.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.1640625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18" style="2" customWidth="1"/>
+    <col min="9" max="9" width="12.5" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="16.1640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="18.83203125" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1">
+    <row r="1" spans="1:13" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>21</v>
@@ -6029,1693 +6930,3326 @@
         <v>22</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>153</v>
+    </row>
+    <row r="2" spans="1:13" ht="15" customHeight="1">
+      <c r="A2" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>196</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="E2" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M2" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15" customHeight="1">
+      <c r="A3" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M3" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" customHeight="1">
+      <c r="A4" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K4" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M4" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1">
+      <c r="A5" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1">
+      <c r="A6" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="15" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="15" customHeight="1">
+      <c r="A8" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M8" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="15" customHeight="1">
+      <c r="A9" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>222</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="7" t="s">
+      <c r="C9" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K9" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M9" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15" customHeight="1">
+      <c r="A10" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" customHeight="1">
+      <c r="A11" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K11" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15" customHeight="1">
+      <c r="A12" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K12" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M12" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" customHeight="1">
+      <c r="A13" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K13" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" customHeight="1">
+      <c r="A14" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K14" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="15" customHeight="1">
+      <c r="A15" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M15" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="15" customHeight="1">
+      <c r="A16" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I16" s="15"/>
+      <c r="J16" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M16" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" customHeight="1">
+      <c r="A17" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M17" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" customHeight="1">
+      <c r="A18" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I18" s="15"/>
+      <c r="J18" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M18" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" customHeight="1">
+      <c r="A19" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I19" s="15"/>
+      <c r="J19" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K19" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M19" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" customHeight="1">
+      <c r="A20" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="D20" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="E20" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K20" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M20" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" customHeight="1">
+      <c r="A21" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M21" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" customHeight="1">
+      <c r="A22" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M22" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" customHeight="1">
+      <c r="A23" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K23" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M23" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" customHeight="1">
+      <c r="A24" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M24" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" customHeight="1">
+      <c r="A25" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>270</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I25" s="15"/>
+      <c r="J25" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M25" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" customHeight="1">
+      <c r="A26" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I26" s="15"/>
+      <c r="J26" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M26" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" customHeight="1">
+      <c r="A27" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I27" s="15"/>
+      <c r="J27" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M27" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" customHeight="1">
+      <c r="A28" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I28" s="15"/>
+      <c r="J28" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M28" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" customHeight="1">
+      <c r="A29" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I29" s="15"/>
+      <c r="J29" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K29" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M29" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" customHeight="1">
+      <c r="A30" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H30" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I30" s="15"/>
+      <c r="J30" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K30" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M30" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" customHeight="1">
+      <c r="A31" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E31" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I31" s="15"/>
+      <c r="J31" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K31" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M31" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" customHeight="1">
+      <c r="A32" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F32" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I32" s="15"/>
+      <c r="J32" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K32" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M32" s="15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="15" customHeight="1">
+      <c r="A33" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H33" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I33" s="15"/>
+      <c r="J33" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K33" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M33" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="15" customHeight="1">
+      <c r="A34" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="E34" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H34" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I34" s="15"/>
+      <c r="J34" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K34" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M34" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="15" customHeight="1">
+      <c r="A35" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H35" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I35" s="15"/>
+      <c r="J35" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K35" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L35" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="15" customHeight="1">
+      <c r="A36" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H36" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K36" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L36" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M36" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="15" customHeight="1">
+      <c r="A37" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K37" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L37" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M37" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="15" customHeight="1">
+      <c r="A38" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I38" s="15"/>
+      <c r="J38" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K38" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L38" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M38" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="15" customHeight="1">
+      <c r="A39" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H39" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I39" s="15"/>
+      <c r="J39" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L39" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M39" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15" customHeight="1">
+      <c r="A40" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H40" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I40" s="15"/>
+      <c r="J40" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K40" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L40" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M40" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15" customHeight="1">
+      <c r="A41" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>319</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I41" s="15"/>
+      <c r="J41" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K41" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L41" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M41" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15" customHeight="1">
+      <c r="A42" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F42" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I42" s="15"/>
+      <c r="J42" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K42" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L42" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M42" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15" customHeight="1">
+      <c r="A43" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H43" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I43" s="15"/>
+      <c r="J43" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K43" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L43" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M43" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15" customHeight="1">
+      <c r="A44" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>328</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H44" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I44" s="15"/>
+      <c r="J44" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K44" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L44" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M44" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15" customHeight="1">
+      <c r="A45" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H45" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I45" s="15"/>
+      <c r="J45" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K45" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L45" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M45" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15" customHeight="1">
+      <c r="A46" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H46" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K46" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L46" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M46" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15" customHeight="1">
+      <c r="A47" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H47" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I47" s="15"/>
+      <c r="J47" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L47" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M47" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15" customHeight="1">
+      <c r="A48" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I48" s="15"/>
+      <c r="J48" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K48" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L48" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M48" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" ht="15" customHeight="1">
+      <c r="A49" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I49" s="15"/>
+      <c r="J49" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K49" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L49" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M49" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" ht="15" customHeight="1">
+      <c r="A50" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H50" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I50" s="15"/>
+      <c r="J50" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K50" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L50" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M50" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" ht="15" customHeight="1">
+      <c r="A51" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H51" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I51" s="15"/>
+      <c r="J51" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K51" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L51" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M51" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="15" customHeight="1">
+      <c r="A52" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H52" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I52" s="15"/>
+      <c r="J52" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K52" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L52" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M52" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="15" customHeight="1">
+      <c r="A53" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>355</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H53" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I53" s="15"/>
+      <c r="J53" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K53" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L53" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M53" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" ht="15" customHeight="1">
+      <c r="A54" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H54" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I54" s="15"/>
+      <c r="J54" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K54" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L54" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M54" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" ht="15" customHeight="1">
+      <c r="A55" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H55" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I55" s="15"/>
+      <c r="J55" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K55" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L55" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M55" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="15" customHeight="1">
+      <c r="A56" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H56" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I56" s="15"/>
+      <c r="J56" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K56" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L56" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M56" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="15" customHeight="1">
+      <c r="A57" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H57" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I57" s="15"/>
+      <c r="J57" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M57" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" ht="15" customHeight="1">
+      <c r="A58" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B58" s="15" t="s">
+        <v>370</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I58" s="15"/>
+      <c r="J58" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K58" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L58" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M58" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" ht="15" customHeight="1">
+      <c r="A59" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B59" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F59" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H59" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I59" s="15"/>
+      <c r="J59" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K59" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L59" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M59" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="15" customHeight="1">
+      <c r="A60" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B60" s="15" t="s">
+        <v>376</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F60" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H60" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K60" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L60" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M60" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" ht="15" customHeight="1">
+      <c r="A61" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B61" s="15" t="s">
+        <v>379</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F61" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H61" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I61" s="15"/>
+      <c r="J61" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K61" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L61" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M61" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" ht="15" customHeight="1">
+      <c r="A62" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B62" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F62" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H62" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I62" s="15"/>
+      <c r="J62" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K62" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L62" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M62" s="15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="15" customHeight="1">
+      <c r="A63" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B63" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H63" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I63" s="15"/>
+      <c r="J63" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K63" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L63" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M63" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="15" customHeight="1">
+      <c r="A64" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B64" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="E64" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F64" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H64" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I64" s="15"/>
+      <c r="J64" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K64" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L64" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M64" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="15" customHeight="1">
+      <c r="A65" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B65" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="E65" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F65" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H65" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I65" s="15"/>
+      <c r="J65" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K65" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L65" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M65" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="15" customHeight="1">
+      <c r="A66" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B66" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="E66" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I66" s="15"/>
+      <c r="J66" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K66" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L66" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M66" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="15" customHeight="1">
+      <c r="A67" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B67" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="E67" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F67" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I67" s="15"/>
+      <c r="J67" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K67" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L67" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M67" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="15" customHeight="1">
+      <c r="A68" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B68" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="E68" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F68" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H68" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I68" s="15"/>
+      <c r="J68" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K68" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L68" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M68" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" ht="15" customHeight="1">
+      <c r="A69" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B69" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="D69" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="E69" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F69" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H69" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I69" s="15"/>
+      <c r="J69" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K69" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L69" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M69" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" ht="15" customHeight="1">
+      <c r="A70" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B70" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="D70" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="E70" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H70" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I70" s="15"/>
+      <c r="J70" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K70" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L70" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M70" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" ht="15" customHeight="1">
+      <c r="A71" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B71" s="15" t="s">
+        <v>409</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="D71" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="E71" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F71" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I71" s="15"/>
+      <c r="J71" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K71" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L71" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M71" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" ht="15" customHeight="1">
+      <c r="A72" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B72" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="D72" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="E72" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F72" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H72" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I72" s="15"/>
+      <c r="J72" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K72" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L72" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M72" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" ht="15" customHeight="1">
+      <c r="A73" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B73" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="D73" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="E73" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H73" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I73" s="15"/>
+      <c r="J73" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="K73" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L73" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M73" s="15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" ht="15" customHeight="1">
+      <c r="A74" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B74" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="D74" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F74" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I74" s="15"/>
+      <c r="J74" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="K74" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L74" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M74" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" ht="15" customHeight="1">
+      <c r="A75" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="D75" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F75" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H75" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I75" s="15"/>
+      <c r="J75" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K75" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L75" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M75" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" ht="15" customHeight="1">
+      <c r="A76" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="D76" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="E76" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H76" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I76" s="15"/>
+      <c r="J76" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K76" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L76" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M76" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" ht="15" customHeight="1">
+      <c r="A77" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="D77" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H77" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I77" s="15"/>
+      <c r="J77" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K77" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L77" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M77" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="15" customHeight="1">
+      <c r="A78" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="D78" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I78" s="15"/>
+      <c r="J78" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K78" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L78" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M78" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" ht="15" customHeight="1">
+      <c r="A79" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="D79" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H79" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I79" s="15"/>
+      <c r="J79" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K79" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L79" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M79" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="15" customHeight="1">
+      <c r="A80" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="B80" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="D80" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I80" s="15"/>
+      <c r="J80" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K80" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L80" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M80" s="15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="15" customHeight="1">
+      <c r="A81" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="B81" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="D81" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I81" s="15"/>
+      <c r="J81" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K81" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L81" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M81" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="15" customHeight="1">
+      <c r="A82" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="D82" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H82" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I82" s="15"/>
+      <c r="J82" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K82" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L82" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M82" s="15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="15" customHeight="1">
+      <c r="A83" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="B83" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>438</v>
+      </c>
+      <c r="D83" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F83" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I83" s="15"/>
+      <c r="J83" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="K83" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="L83" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="M83" s="15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
+      <c r="A84" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="K2" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N2" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K3" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N5" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N6" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N7" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N8" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N9" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
-      <c r="A11" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N11" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="A12" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M12" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N12" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="A13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N13" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="A14" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="A15" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L15" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N15" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
-      <c r="A16" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L16" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N16" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
-      <c r="A17" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L17" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N17" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
-      <c r="A18" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N18" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
-      <c r="A19" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L19" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N19" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
-      <c r="A20" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N20" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
-      <c r="A21" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N21" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
-      <c r="A22" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N22" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
-      <c r="A23" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N23" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
-      <c r="A24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L24" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N24" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
-      <c r="A25" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N25" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14">
-      <c r="A26" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L26" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N26" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14">
-      <c r="A27" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N27" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14">
-      <c r="A28" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B28" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N28" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14">
-      <c r="A29" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B29" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N29" s="7">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14">
-      <c r="A30" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B30" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L30" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N30" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14">
-      <c r="A31" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M31" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N31" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14">
-      <c r="A32" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L32" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N32" s="7">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G33" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K33" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N33" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="N34" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="K35" s="7"/>
-    </row>
-    <row r="36" spans="1:14">
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="K36" s="7"/>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="K37" s="7"/>
-    </row>
-    <row r="38" spans="1:14">
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="K38" s="7"/>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="K39" s="7"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="K40" s="7"/>
-    </row>
-    <row r="41" spans="1:14">
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="K41" s="7"/>
-    </row>
-    <row r="42" spans="1:14">
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="K42" s="7"/>
-    </row>
-    <row r="43" spans="1:14">
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="K43" s="7"/>
-    </row>
-    <row r="44" spans="1:14">
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="K44" s="7"/>
-    </row>
-    <row r="45" spans="1:14">
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="K45" s="7"/>
-    </row>
-    <row r="46" spans="1:14">
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="K46" s="7"/>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="K47" s="7"/>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="G48" s="7"/>
-      <c r="H48" s="7"/>
-      <c r="K48" s="7"/>
-    </row>
-    <row r="49" spans="7:11">
-      <c r="G49" s="7"/>
-      <c r="H49" s="7"/>
-      <c r="K49" s="7"/>
-    </row>
-    <row r="50" spans="7:11">
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
-      <c r="K50" s="7"/>
-    </row>
-    <row r="51" spans="7:11">
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
-      <c r="K51" s="7"/>
-    </row>
-    <row r="52" spans="7:11">
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
-      <c r="K52" s="7"/>
-    </row>
-    <row r="53" spans="7:11">
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
-      <c r="K53" s="7"/>
-    </row>
-    <row r="54" spans="7:11">
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="K54" s="7"/>
-    </row>
-    <row r="55" spans="7:11">
-      <c r="G55" s="7"/>
-      <c r="H55" s="7"/>
-      <c r="K55" s="7"/>
-    </row>
-    <row r="56" spans="7:11">
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
-      <c r="K56" s="7"/>
-    </row>
-    <row r="57" spans="7:11">
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
-      <c r="K57" s="7"/>
-    </row>
-    <row r="58" spans="7:11">
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
-      <c r="K58" s="7"/>
-    </row>
-    <row r="59" spans="7:11">
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="K59" s="7"/>
-    </row>
-    <row r="60" spans="7:11">
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="K60" s="7"/>
-    </row>
-    <row r="61" spans="7:11">
-      <c r="G61" s="7"/>
-      <c r="H61" s="7"/>
-      <c r="K61" s="7"/>
-    </row>
-    <row r="62" spans="7:11">
-      <c r="G62" s="7"/>
-      <c r="H62" s="7"/>
-      <c r="K62" s="7"/>
-    </row>
-    <row r="63" spans="7:11">
-      <c r="G63" s="7"/>
-      <c r="H63" s="7"/>
-      <c r="K63" s="7"/>
-    </row>
-    <row r="64" spans="7:11">
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-      <c r="K64" s="7"/>
-    </row>
-    <row r="65" spans="7:11">
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-      <c r="K65" s="7"/>
-    </row>
-    <row r="66" spans="7:11">
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="K66" s="7"/>
-    </row>
-    <row r="67" spans="7:11">
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
-      <c r="K67" s="7"/>
-    </row>
-    <row r="68" spans="7:11">
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
-      <c r="K68" s="7"/>
-    </row>
-    <row r="69" spans="7:11">
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
-      <c r="K69" s="7"/>
-    </row>
-    <row r="70" spans="7:11">
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
-      <c r="K70" s="7"/>
-    </row>
-    <row r="71" spans="7:11">
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="K71" s="7"/>
-    </row>
-    <row r="72" spans="7:11">
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
-      <c r="K72" s="7"/>
-    </row>
-    <row r="73" spans="7:11">
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="K73" s="7"/>
-    </row>
-    <row r="74" spans="7:11">
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-      <c r="K74" s="7"/>
-    </row>
-    <row r="75" spans="7:11">
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-      <c r="K75" s="7"/>
-    </row>
-    <row r="76" spans="7:11">
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
-      <c r="K76" s="7"/>
-    </row>
-    <row r="77" spans="7:11">
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
-      <c r="K77" s="7"/>
-    </row>
-    <row r="78" spans="7:11">
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
-      <c r="K78" s="7"/>
-    </row>
-    <row r="79" spans="7:11">
-      <c r="G79" s="7"/>
-      <c r="H79" s="7"/>
-      <c r="K79" s="7"/>
-    </row>
-    <row r="80" spans="7:11">
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="K80" s="7"/>
-    </row>
-    <row r="81" spans="7:11">
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
-      <c r="K81" s="7"/>
-    </row>
-    <row r="82" spans="7:11">
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
-      <c r="K82" s="7"/>
-    </row>
-    <row r="83" spans="7:11">
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
-      <c r="K83" s="7"/>
-    </row>
-    <row r="84" spans="7:11">
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
-      <c r="K84" s="7"/>
-    </row>
-    <row r="85" spans="7:11">
-      <c r="G85" s="7"/>
-      <c r="H85" s="7"/>
-      <c r="K85" s="7"/>
-    </row>
-    <row r="86" spans="7:11">
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
-      <c r="K86" s="7"/>
-    </row>
-    <row r="87" spans="7:11">
-      <c r="G87" s="7"/>
-      <c r="H87" s="7"/>
-      <c r="K87" s="7"/>
-    </row>
-    <row r="88" spans="7:11">
-      <c r="G88" s="7"/>
-      <c r="H88" s="7"/>
-      <c r="K88" s="7"/>
-    </row>
-    <row r="89" spans="7:11">
-      <c r="G89" s="7"/>
-      <c r="H89" s="7"/>
-      <c r="K89" s="7"/>
-    </row>
-    <row r="90" spans="7:11">
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
-      <c r="K90" s="7"/>
-    </row>
-    <row r="91" spans="7:11">
-      <c r="G91" s="7"/>
-      <c r="H91" s="7"/>
-      <c r="K91" s="7"/>
-    </row>
-    <row r="92" spans="7:11">
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
-      <c r="K92" s="7"/>
-    </row>
-    <row r="93" spans="7:11">
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
-      <c r="K93" s="7"/>
-    </row>
-    <row r="94" spans="7:11">
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
-      <c r="K94" s="7"/>
-    </row>
-    <row r="95" spans="7:11">
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
-      <c r="K95" s="7"/>
-    </row>
-    <row r="96" spans="7:11">
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
-      <c r="K96" s="7"/>
-    </row>
-    <row r="97" spans="7:11">
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
-      <c r="K97" s="7"/>
+    </row>
+    <row r="85" spans="1:13" ht="15" customHeight="1">
+      <c r="A85" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
+      <c r="A86" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
+      <c r="A87" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
+      <c r="A88" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
+      <c r="A89" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
+      <c r="A90" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
+      <c r="A91" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
+      <c r="A92" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
+      <c r="A93" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
+      <c r="A94" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
+      <c r="A95" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
+      <c r="A96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Important!" prompt="It is critical that you use the index naming convention in the &quot;Index Sequences&quot; tab of this form. _x000a_If your library is not multiplexed, use &quot;No Index&quot;." sqref="D2:D34">
-      <formula1>0</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter>
@@ -7727,34 +10261,6 @@
     <tablePart r:id="rId2"/>
   </tableParts>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Menus!$D$2:$D$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>M2:M1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Menus!$F$2:$F$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>L2:L1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Menus!$G$2:$G$5</xm:f>
-          </x14:formula1>
-          <xm:sqref>F2:F1048576</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Menus!$E$2:$E$9</xm:f>
-          </x14:formula1>
-          <xm:sqref>I2:I1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -7767,7 +10273,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -7783,61 +10289,60 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>258</v>
+        <v>440</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>259</v>
+        <v>441</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>260</v>
+        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>170</v>
+        <v>309</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>261</v>
+        <v>443</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>262</v>
+        <v>444</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>260</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>183</v>
+        <v>421</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>261</v>
+        <v>443</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>263</v>
+        <v>445</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="3" customFormat="1"/>
+        <v>442</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -7861,7 +10366,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -7892,10 +10397,11 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>37</v>
+        <v>176</v>
+      </c>
+      <c r="B2" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -7906,16 +10412,257 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>38</v>
+        <v>176</v>
+      </c>
+      <c r="B3" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B5" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B6" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B7" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B8" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B9" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B10" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B11" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B12" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B13" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B14" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B15" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B16" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B17" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B18" s="2" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B19" s="2" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" s="2">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -7929,16 +10676,6 @@
     <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Menus!$D$2:$D$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B1048576</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
     </ext>
@@ -7951,91 +10688,167 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="6"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="129.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="137" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15">
-      <c r="A1" s="18" t="s">
-        <v>283</v>
+    <row r="1" spans="1:3">
+      <c r="A1" s="17" t="s">
+        <v>163</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>277</v>
+        <v>157</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15">
-      <c r="A2" s="18" t="s">
-        <v>284</v>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="17" t="s">
+        <v>184</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>275</v>
+        <v>448</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="18" t="s">
-        <v>284</v>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="17" t="s">
+        <v>184</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>273</v>
+        <v>450</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15">
-      <c r="A4" s="18" t="s">
-        <v>284</v>
+        <v>451</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="17" t="s">
+        <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>271</v>
+        <v>452</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15">
-      <c r="A5" s="18" t="s">
-        <v>284</v>
+        <v>453</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="17" t="s">
+        <v>184</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>269</v>
+        <v>454</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="15">
-      <c r="A6" s="18"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-    </row>
-    <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="18"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-    </row>
-    <row r="8" spans="1:3" ht="15">
-      <c r="A8" s="18"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="9" spans="1:3" ht="15">
-      <c r="A9" s="18"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>469</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>471</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>472</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="17" t="s">
+        <v>186</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -8058,7 +10871,9 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -8066,7 +10881,7 @@
     <col min="2" max="2" width="10.83203125" style="2"/>
     <col min="3" max="3" width="15.1640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="2" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="16.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.1640625" style="2" bestFit="1" customWidth="1"/>
@@ -8075,125 +10890,105 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>36</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>156</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="C4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="F5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="E5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="F6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="E6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="2" t="s">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="F7" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="E7" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F7" s="2" t="s">
+    <row r="8" spans="1:8">
+      <c r="F8" s="2" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="E8" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="E9" s="2" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:8">

--- a/data/sra_metadata/SRP199742_SLX15025_GEP00010.xlsx
+++ b/data/sra_metadata/SRP199742_SLX15025_GEP00010.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="16680" tabRatio="736" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="16680" tabRatio="736"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="10" r:id="rId1"/>
@@ -14,10 +14,10 @@
     <sheet name="Layout" sheetId="6" r:id="rId5"/>
     <sheet name="Plate" sheetId="7" r:id="rId6"/>
     <sheet name="GuideMismatches" sheetId="4" r:id="rId7"/>
-    <sheet name="DesireEditedSequences" sheetId="11" r:id="rId8"/>
+    <sheet name="TargetedSearch" sheetId="11" r:id="rId8"/>
     <sheet name="Menus" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -941,13 +941,1220 @@
     <t>sequence</t>
   </si>
   <si>
-    <t>DesireEditedSequences</t>
-  </si>
-  <si>
     <t>The name of the sequence</t>
   </si>
   <si>
     <t>The sequence</t>
+  </si>
+  <si>
+    <t>amplicon_name</t>
+  </si>
+  <si>
+    <t>The name of the Amplicon. This name must be unique within this project.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This name must match </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Guide@guide_name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>This name must match</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Amplicon@amplicon_name</t>
+    </r>
+  </si>
+  <si>
+    <t>FTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NC_000016.10 </t>
+  </si>
+  <si>
+    <t>This gene is a nuclear protein of the AlkB related non-haem iron and 2-oxoglutarate-dependent oxygenase superfamily but the exact physiological function of this gene is not known. Other non-heme iron enzymes function to reverse alkylated DNA and RNA damage by oxidative demethylation. Studies in mice and humans indicate a role in nervous and cardiovascular systems and a strong association with body mass index, obesity risk, and type 2 diabetes.</t>
+  </si>
+  <si>
+    <t>LEPR</t>
+  </si>
+  <si>
+    <t>NC_000001.11</t>
+  </si>
+  <si>
+    <t>The protein encoded by this gene belongs to the gp130 family of cytokine receptors that are known to stimulate gene transcription via activation of cytosolic STAT proteins. This protein is a receptor for leptin (an adipocyte-specific hormone that regulates body weight), and is involved in the regulation of fat metabolism, as well as in a novel hematopoietic pathway that is required for normal lymphopoiesis. Mutations in this gene have been associated with obesity and pituitary dysfunction. Alternatively spliced transcript variants encoding different isoforms have been described for this gene.</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR</t>
+  </si>
+  <si>
+    <t>NC_000004.12</t>
+  </si>
+  <si>
+    <t>This gene encodes a G-protein coupled receptor binds on-sulfated members of the cholecystokinin family</t>
+  </si>
+  <si>
+    <t>FTO.9</t>
+  </si>
+  <si>
+    <t>GGAACGAGAGCGCGAAGCTAAGG</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>AGG</t>
+  </si>
+  <si>
+    <t>Cas9</t>
+  </si>
+  <si>
+    <t>LEPR.1</t>
+  </si>
+  <si>
+    <t>CCTAACTGTGTAATTTCACTGAA</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR.1</t>
+  </si>
+  <si>
+    <t>CCAGTGAGATGTCCCCTGACCCT</t>
+  </si>
+  <si>
+    <t>FTO.9.in</t>
+  </si>
+  <si>
+    <t>LEPR.1.in</t>
+  </si>
+  <si>
+    <t>CCKAR.1.in</t>
+  </si>
+  <si>
+    <t>TCCAGGGCGAGGGATCTAC</t>
+  </si>
+  <si>
+    <t>GCCATCAAACCAAGCCCTTC</t>
+  </si>
+  <si>
+    <t>Template preparation [Hotshot extracted gDNA from HUES9 POMC GFP 10H cell line,  use 6ul for PCR]. PCR mix composition [1 U FastStart (Roche), 200 uM dNTPs, 0.1 uM each primer, 4.5 mM MgCl2, 10 ng gDNA), amplification protocol (95C 2min, 40x (95C 20s, 64.4C 20s, 72C 15s), 72C 3 min for gDNA)]</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCCAGGACAGTTGCTCACAC</t>
+  </si>
+  <si>
+    <t>TCTCTCTCCCACCCACAACT</t>
+  </si>
+  <si>
+    <t>TTCATGGCCACCTTCCCCT</t>
+  </si>
+  <si>
+    <t>TCTCCATCAGCTCTGCTCCT</t>
+  </si>
+  <si>
+    <t>GEP00010_01</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0329</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_1_A1</t>
+  </si>
+  <si>
+    <t>Fluidigm</t>
+  </si>
+  <si>
+    <t>SLX-15025</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>HUES9</t>
+  </si>
+  <si>
+    <t>10H_P13_FTO</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0330</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_1_B1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10H_P13_CCKAR</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0331</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_1_C1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>10H_P13_LEPR</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A9</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0332</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_1_D1</t>
+  </si>
+  <si>
+    <t>A10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0333</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_1_E1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0334</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_1_F1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0335</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_1_A2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0336</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_1_B2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B9</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0337</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_1_C2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0338</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_1_D2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0339</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_1_E2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0340</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_1_F2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0341</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_2_A1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C9</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0342</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_2_B1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0343</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_2_C1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>D6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0344</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_2_D1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>D7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0345</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_2_E1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>D8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0346</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_2_F1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>D9</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0347</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_2_A2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>D10</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0348</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_2_B2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>E6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0349</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_2_C2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>E7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0350</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_2_D2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>E8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0351</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_2_E2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>E9</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0352</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_2_F2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>F6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0353</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_3_A1</t>
+  </si>
+  <si>
+    <t>F7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0354</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_3_B1</t>
+  </si>
+  <si>
+    <t>F8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0355</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_3_C1</t>
+  </si>
+  <si>
+    <t>F9</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0356</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_3_D1</t>
+  </si>
+  <si>
+    <t>G6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0357</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_3_E1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>G7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0358</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_3_F1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>G8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0359</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_3_A2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>G9</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0360</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_3_B2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>H6</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0361</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_3_C2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>H7</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0362</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_3_D2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>H8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0363</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_3_E2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>H9</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0364</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_3_F2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEP00010_02</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0193</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_1_A1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0194</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_1_B1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0195</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_1_C1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0196</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_1_D1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0197</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_1_E1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0198</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_1_F1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0199</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_1_A2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0200</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_1_B2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0201</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_1_C2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>B5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0202</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_1_D2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0203</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_1_E2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0204</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_1_F2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0205</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_2_A1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0206</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_2_B1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>C5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0207</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_2_C1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>D1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0208</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_2_D1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>D2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0209</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_2_E1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>D3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0210</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_2_F1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>D4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0211</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_2_A2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>D5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0212</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_2_B2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>E1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0213</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_2_C2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0214</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_2_D2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>E3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0215</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_2_E2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>E4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0216</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_2_F2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>E5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0217</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_3_A1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>F1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0218</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_3_B1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>F2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0219</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_3_C1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>F3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0220</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_3_D1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>F4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0221</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_3_E1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0222</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_3_F1_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>G2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0223</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_3_A2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>G3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0224</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_3_B2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>G4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0225</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_3_C2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0226</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_3_D2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>H2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0227</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_3_E2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>H3</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0228</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_3_F2_2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>H4</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0229</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_3_F2_1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEP00010_03</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0233</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_A1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0234</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_B1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0235</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_C1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0236</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_D1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0237</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_E1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0238</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_F1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0239</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_G1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0240</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_H1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FLD0241</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base_A2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>NGS_04</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEP00010_01_NGS</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pooled library will be temporarily stored, until sequencing library confirmed OK</t>
+  </si>
+  <si>
+    <t>NGS_03</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEP00010_02_NGS</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>GEP00010_03_NGS</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR.1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR.1</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTO_WT</t>
+  </si>
+  <si>
+    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAACGAGAGCGCGAAGCTAAGGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
+  </si>
+  <si>
+    <t>FTO_2_sites</t>
+  </si>
+  <si>
+    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAATGAGAGCGCGAAGCTAAAGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
+  </si>
+  <si>
+    <t>FTO_target_site</t>
+  </si>
+  <si>
+    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAATGAGAGCGCGAAGCTAAGGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
+  </si>
+  <si>
+    <t>FTO_PAM_site</t>
+  </si>
+  <si>
+    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAACGAGAGCGCGAAGCTAAAGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
+  </si>
+  <si>
+    <t>LEPR_WT</t>
+  </si>
+  <si>
+    <t>LEPR_2_sites</t>
+  </si>
+  <si>
+    <t>TACTCAGACTCATAAGATCATGGAAAACAAGATGTGTGATCTAACTGTGTAGTTTCACTGAAGAAACCTTCAGATTTGTGTTATAATGGG</t>
+  </si>
+  <si>
+    <t>TACTCAGACTCATAAGATCATGGAAAACAAGATGTGTGACCTAACTGTGTAGTTTCACTGAAGAAACCTTCAGATTTGTGTTATAATGGG</t>
+  </si>
+  <si>
+    <t>LEPR_PAM_site</t>
+  </si>
+  <si>
+    <t>TACTCAGACTCATAAGATCATGGAAAACAAGATGTGTGATCTAACTGTGTAATTTCACTGAAGAAACCTTCAGATTTGTGTTATAATGGG</t>
+  </si>
+  <si>
+    <t>CCTCCTCCCTGCCTTCCTTCTGCGGTGGAGGGTCAGGGGACATCTTACTGAGGTGGCACCGAGGCACTCATATGGCTGTACGAGAACCTG</t>
+  </si>
+  <si>
+    <t>CCTCCTCCCTGCCTTCCTTCTGCGGTGGAGGGTCAGGGGACATCTTACTGGGGTGGCACCGAGGCACTCATATGGCTGTACGAGAACCTG</t>
+  </si>
+  <si>
+    <t>CCKAR_PAM_site</t>
+  </si>
+  <si>
+    <t>CCTCCTCCCTGCCTTCCTTCTGCGGTGGAGGGTCAGGGGACATCTCACTGAGGTGGCACCGAGGCACTCATATGGCTGTACGAGAACCTG</t>
+  </si>
+  <si>
+    <t>SLX-15025</t>
+  </si>
+  <si>
+    <t>TACTCAGACTCATAAGATCATGGAAAACAAGATGTGTGACCTAACTGTGTAATTTCACTGAAGAAACCTTCAGATTTGTGTTATAATGGG</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>LEPR_target_site</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_WT</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCTCCTCCCTGCCTTCCTTCTGCGGTGGAGGGTCAGGGGACATCTCACTGGGGTGGCACCGAGGCACTCATATGGCTGTACGAGAACCTG</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_2_site</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>CCKAR_target_site</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>TargetedSearch</t>
   </si>
   <si>
     <r>
@@ -960,7 +2167,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t>DesireEditedSequences</t>
+      <t>TargetedSearch</t>
     </r>
     <r>
       <rPr>
@@ -970,1213 +2177,6 @@
       </rPr>
       <t xml:space="preserve"> is the list of sequence to count the reads against. If not provided, all sequences above a certain threshold will be considered for counting the reads.   </t>
     </r>
-  </si>
-  <si>
-    <t>amplicon_name</t>
-  </si>
-  <si>
-    <t>The name of the Amplicon. This name must be unique within this project.</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This name must match </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Guide@guide_name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>This name must match</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Amplicon@amplicon_name</t>
-    </r>
-  </si>
-  <si>
-    <t>FTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NC_000016.10 </t>
-  </si>
-  <si>
-    <t>This gene is a nuclear protein of the AlkB related non-haem iron and 2-oxoglutarate-dependent oxygenase superfamily but the exact physiological function of this gene is not known. Other non-heme iron enzymes function to reverse alkylated DNA and RNA damage by oxidative demethylation. Studies in mice and humans indicate a role in nervous and cardiovascular systems and a strong association with body mass index, obesity risk, and type 2 diabetes.</t>
-  </si>
-  <si>
-    <t>LEPR</t>
-  </si>
-  <si>
-    <t>NC_000001.11</t>
-  </si>
-  <si>
-    <t>The protein encoded by this gene belongs to the gp130 family of cytokine receptors that are known to stimulate gene transcription via activation of cytosolic STAT proteins. This protein is a receptor for leptin (an adipocyte-specific hormone that regulates body weight), and is involved in the regulation of fat metabolism, as well as in a novel hematopoietic pathway that is required for normal lymphopoiesis. Mutations in this gene have been associated with obesity and pituitary dysfunction. Alternatively spliced transcript variants encoding different isoforms have been described for this gene.</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR</t>
-  </si>
-  <si>
-    <t>NC_000004.12</t>
-  </si>
-  <si>
-    <t>This gene encodes a G-protein coupled receptor binds on-sulfated members of the cholecystokinin family</t>
-  </si>
-  <si>
-    <t>FTO.9</t>
-  </si>
-  <si>
-    <t>GGAACGAGAGCGCGAAGCTAAGG</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>AGG</t>
-  </si>
-  <si>
-    <t>Cas9</t>
-  </si>
-  <si>
-    <t>LEPR.1</t>
-  </si>
-  <si>
-    <t>CCTAACTGTGTAATTTCACTGAA</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR.1</t>
-  </si>
-  <si>
-    <t>CCAGTGAGATGTCCCCTGACCCT</t>
-  </si>
-  <si>
-    <t>FTO.9.in</t>
-  </si>
-  <si>
-    <t>LEPR.1.in</t>
-  </si>
-  <si>
-    <t>CCKAR.1.in</t>
-  </si>
-  <si>
-    <t>TCCAGGGCGAGGGATCTAC</t>
-  </si>
-  <si>
-    <t>GCCATCAAACCAAGCCCTTC</t>
-  </si>
-  <si>
-    <t>Template preparation [Hotshot extracted gDNA from HUES9 POMC GFP 10H cell line,  use 6ul for PCR]. PCR mix composition [1 U FastStart (Roche), 200 uM dNTPs, 0.1 uM each primer, 4.5 mM MgCl2, 10 ng gDNA), amplification protocol (95C 2min, 40x (95C 20s, 64.4C 20s, 72C 15s), 72C 3 min for gDNA)]</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>TCCAGGACAGTTGCTCACAC</t>
-  </si>
-  <si>
-    <t>TCTCTCTCCCACCCACAACT</t>
-  </si>
-  <si>
-    <t>TTCATGGCCACCTTCCCCT</t>
-  </si>
-  <si>
-    <t>TCTCCATCAGCTCTGCTCCT</t>
-  </si>
-  <si>
-    <t>GEP00010_01</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>A6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0329</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_1_A1</t>
-  </si>
-  <si>
-    <t>Fluidigm</t>
-  </si>
-  <si>
-    <t>SLX-15025</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>HUES9</t>
-  </si>
-  <si>
-    <t>10H_P13_FTO</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>A7</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0330</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_1_B1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10H_P13_CCKAR</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>A8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0331</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_1_C1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>10H_P13_LEPR</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>A9</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0332</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_1_D1</t>
-  </si>
-  <si>
-    <t>A10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0333</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_1_E1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0334</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_1_F1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B7</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0335</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_1_A2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0336</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_1_B2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B9</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0337</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_1_C2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0338</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_1_D2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>C6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0339</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_1_E2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>C7</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0340</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_1_F2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>C8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0341</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_2_A1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>C9</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0342</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_2_B1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>C10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0343</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_2_C1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>D6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0344</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_2_D1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>D7</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0345</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_2_E1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>D8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0346</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_2_F1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>D9</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0347</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_2_A2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>D10</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0348</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_2_B2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>E6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0349</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_2_C2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>E7</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0350</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_2_D2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>E8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0351</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_2_E2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>E9</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0352</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_2_F2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>F6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0353</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_3_A1</t>
-  </si>
-  <si>
-    <t>F7</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0354</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_3_B1</t>
-  </si>
-  <si>
-    <t>F8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0355</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_3_C1</t>
-  </si>
-  <si>
-    <t>F9</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0356</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_3_D1</t>
-  </si>
-  <si>
-    <t>G6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0357</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_3_E1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>G7</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0358</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_3_F1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>G8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0359</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_3_A2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>G9</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0360</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_3_B2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>H6</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0361</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_3_C2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>H7</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0362</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_3_D2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>H8</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0363</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_3_E2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>H9</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0364</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_3_F2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>GEP00010_02</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>A1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0193</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_1_A1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>A2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0194</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_1_B1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>A3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0195</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_1_C1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>A4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0196</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_1_D1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>A5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0197</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_1_E1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0198</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_1_F1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0199</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_1_A2_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0200</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_1_B2_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0201</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_1_C2_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>B5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0202</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_1_D2_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>C1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0203</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_1_E2_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>C2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0204</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_1_F2_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>C3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0205</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_2_A1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>C4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0206</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_2_B1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>C5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0207</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_2_C1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>D1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0208</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_2_D1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>D2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0209</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_2_E1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>D3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0210</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_2_F1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>D4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0211</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_2_A2_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>D5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0212</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_2_B2_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>E1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0213</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_2_C2_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>E2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0214</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_2_D2_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>E3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0215</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_2_E2_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>E4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0216</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_2_F2_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>E5</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0217</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_3_A1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>F1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0218</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_3_B1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>F2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0219</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_3_C1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>F3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0220</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_3_D1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>F4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0221</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_3_E1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>G1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0222</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_3_F1_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>G2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0223</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_3_A2_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>G3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0224</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_3_B2_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>G4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0225</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_3_C2_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>H1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0226</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_3_D2_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>H2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0227</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_3_E2_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>H3</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0228</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_3_F2_2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>H4</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0229</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_3_F2_1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>GEP00010_03</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0233</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_A1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0234</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_B1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0235</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_C1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0236</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_D1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0237</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_E1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0238</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_F1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0239</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_G1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0240</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_H1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FLD0241</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Base_A2</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>NGS_04</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>GEP00010_01_NGS</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pooled library will be temporarily stored, until sequencing library confirmed OK</t>
-  </si>
-  <si>
-    <t>NGS_03</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>GEP00010_02_NGS</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>GEP00010_03_NGS</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR.1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR.1</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>FTO_WT</t>
-  </si>
-  <si>
-    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAACGAGAGCGCGAAGCTAAGGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
-  </si>
-  <si>
-    <t>FTO_2_sites</t>
-  </si>
-  <si>
-    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAATGAGAGCGCGAAGCTAAAGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
-  </si>
-  <si>
-    <t>FTO_target_site</t>
-  </si>
-  <si>
-    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAATGAGAGCGCGAAGCTAAGGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
-  </si>
-  <si>
-    <t>FTO_PAM_site</t>
-  </si>
-  <si>
-    <t>GCAGCATGAAGCGCACCCCGACTGCCGAGGAACGAGAGCGCGAAGCTAAAGTATGTCGGGCTCCCGGGGCCTGGAGATCTTCGTGCGCTG</t>
-  </si>
-  <si>
-    <t>LEPR_WT</t>
-  </si>
-  <si>
-    <t>LEPR_2_sites</t>
-  </si>
-  <si>
-    <t>TACTCAGACTCATAAGATCATGGAAAACAAGATGTGTGATCTAACTGTGTAGTTTCACTGAAGAAACCTTCAGATTTGTGTTATAATGGG</t>
-  </si>
-  <si>
-    <t>TACTCAGACTCATAAGATCATGGAAAACAAGATGTGTGACCTAACTGTGTAGTTTCACTGAAGAAACCTTCAGATTTGTGTTATAATGGG</t>
-  </si>
-  <si>
-    <t>LEPR_PAM_site</t>
-  </si>
-  <si>
-    <t>TACTCAGACTCATAAGATCATGGAAAACAAGATGTGTGATCTAACTGTGTAATTTCACTGAAGAAACCTTCAGATTTGTGTTATAATGGG</t>
-  </si>
-  <si>
-    <t>CCTCCTCCCTGCCTTCCTTCTGCGGTGGAGGGTCAGGGGACATCTTACTGAGGTGGCACCGAGGCACTCATATGGCTGTACGAGAACCTG</t>
-  </si>
-  <si>
-    <t>CCTCCTCCCTGCCTTCCTTCTGCGGTGGAGGGTCAGGGGACATCTTACTGGGGTGGCACCGAGGCACTCATATGGCTGTACGAGAACCTG</t>
-  </si>
-  <si>
-    <t>CCKAR_PAM_site</t>
-  </si>
-  <si>
-    <t>CCTCCTCCCTGCCTTCCTTCTGCGGTGGAGGGTCAGGGGACATCTCACTGAGGTGGCACCGAGGCACTCATATGGCTGTACGAGAACCTG</t>
-  </si>
-  <si>
-    <t>SLX-15025</t>
-  </si>
-  <si>
-    <t>TACTCAGACTCATAAGATCATGGAAAACAAGATGTGTGACCTAACTGTGTAATTTCACTGAAGAAACCTTCAGATTTGTGTTATAATGGG</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>LEPR_target_site</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_WT</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCTCCTCCCTGCCTTCCTTCTGCGGTGGAGGGTCAGGGGACATCTCACTGGGGTGGCACCGAGGCACTCATATGGCTGTACGAGAACCTG</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_2_site</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>CCKAR_target_site</t>
-    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -5639,7 +5639,7 @@
   </sheetPr>
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
@@ -5853,10 +5853,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -6214,7 +6214,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -6254,18 +6254,18 @@
     </row>
     <row r="75" spans="1:3" ht="30">
       <c r="A75" s="1" t="s">
-        <v>159</v>
+        <v>471</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>162</v>
+        <v>472</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="B76" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -6273,7 +6273,7 @@
         <v>157</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -6281,7 +6281,7 @@
         <v>158</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -6321,7 +6321,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6367,13 +6367,13 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D2" s="2">
         <v>16</v>
@@ -6388,18 +6388,18 @@
         <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -6414,18 +6414,18 @@
         <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
@@ -6440,7 +6440,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6520,16 +6520,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>178</v>
       </c>
       <c r="E2" s="2">
         <v>90</v>
@@ -6538,18 +6538,18 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
@@ -6558,18 +6558,18 @@
         <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
@@ -6578,7 +6578,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -6634,7 +6634,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
@@ -6681,10 +6681,10 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>156</v>
@@ -6702,7 +6702,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I2" s="2">
         <v>53704130</v>
@@ -6711,7 +6711,7 @@
         <v>53704148</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L2" s="19">
         <v>53704291</v>
@@ -6720,15 +6720,15 @@
         <v>53704310</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>156</v>
@@ -6746,7 +6746,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I3" s="2">
         <v>65637123</v>
@@ -6755,7 +6755,7 @@
         <v>65637142</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="L3" s="2">
         <v>65637077</v>
@@ -6764,15 +6764,15 @@
         <v>65637096</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>156</v>
@@ -6790,7 +6790,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I4" s="2">
         <v>26481482</v>
@@ -6799,7 +6799,7 @@
         <v>26481500</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="L4" s="2">
         <v>26481710</v>
@@ -6808,7 +6808,7 @@
         <v>26481729</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -6877,7 +6877,7 @@
   <dimension ref="A1:M97"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6941,32 +6941,32 @@
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="A2" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="D2" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H2" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>41</v>
@@ -6980,32 +6980,32 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B3" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>203</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>464</v>
+      </c>
+      <c r="H3" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>41</v>
@@ -7019,32 +7019,32 @@
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B4" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>207</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F4" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H4" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>41</v>
@@ -7058,32 +7058,32 @@
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B5" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="D5" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>41</v>
@@ -7097,32 +7097,32 @@
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="C6" s="15" t="s">
-        <v>214</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H6" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>41</v>
@@ -7136,32 +7136,32 @@
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H7" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>41</v>
@@ -7175,32 +7175,32 @@
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B8" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H8" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>41</v>
@@ -7214,32 +7214,32 @@
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B9" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>223</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>41</v>
@@ -7253,32 +7253,32 @@
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B10" s="15" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="D10" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>226</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>227</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H10" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>41</v>
@@ -7292,32 +7292,32 @@
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B11" s="15" t="s">
+        <v>226</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H11" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>41</v>
@@ -7331,32 +7331,32 @@
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B12" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>231</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>232</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H12" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H12" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>41</v>
@@ -7370,32 +7370,32 @@
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B13" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>233</v>
+      </c>
+      <c r="D13" s="7" t="s">
         <v>234</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>235</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H13" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G13" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H13" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>41</v>
@@ -7409,32 +7409,32 @@
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B14" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H14" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H14" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>41</v>
@@ -7448,32 +7448,32 @@
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B15" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>241</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>242</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H15" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>41</v>
@@ -7487,32 +7487,32 @@
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B16" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H16" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>41</v>
@@ -7526,32 +7526,32 @@
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B17" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>247</v>
-      </c>
-      <c r="D17" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F17" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H17" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G17" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H17" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>41</v>
@@ -7565,32 +7565,32 @@
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B18" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="D18" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>250</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>251</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H18" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G18" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>41</v>
@@ -7604,32 +7604,32 @@
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B19" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>252</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>253</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>254</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H19" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H19" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>41</v>
@@ -7643,32 +7643,32 @@
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B20" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="D20" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>256</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F20" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H20" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>41</v>
@@ -7682,32 +7682,32 @@
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1">
       <c r="A21" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B21" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>259</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H21" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>41</v>
@@ -7721,32 +7721,32 @@
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1">
       <c r="A22" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B22" s="15" t="s">
+        <v>259</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="D22" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H22" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>41</v>
@@ -7760,32 +7760,32 @@
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1">
       <c r="A23" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B23" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>265</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F23" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>41</v>
@@ -7799,32 +7799,32 @@
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1">
       <c r="A24" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B24" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>268</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F24" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H24" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G24" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H24" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K24" s="15" t="s">
         <v>41</v>
@@ -7838,32 +7838,32 @@
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1">
       <c r="A25" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B25" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="D25" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>271</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G25" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H25" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>41</v>
@@ -7877,32 +7877,32 @@
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1">
       <c r="A26" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B26" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>274</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>275</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K26" s="15" t="s">
         <v>41</v>
@@ -7916,32 +7916,32 @@
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1">
       <c r="A27" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B27" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>277</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F27" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H27" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G27" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H27" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>41</v>
@@ -7955,32 +7955,32 @@
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1">
       <c r="A28" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B28" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F28" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H28" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G28" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>41</v>
@@ -7994,32 +7994,32 @@
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1">
       <c r="A29" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B29" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D29" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F29" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H29" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G29" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K29" s="15" t="s">
         <v>41</v>
@@ -8033,32 +8033,32 @@
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1">
       <c r="A30" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B30" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="D30" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>286</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F30" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H30" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G30" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K30" s="15" t="s">
         <v>41</v>
@@ -8072,32 +8072,32 @@
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1">
       <c r="A31" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B31" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>287</v>
+      </c>
+      <c r="D31" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="C31" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G31" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H31" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G31" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K31" s="15" t="s">
         <v>41</v>
@@ -8111,32 +8111,32 @@
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1">
       <c r="A32" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B32" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="D32" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="C32" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F32" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H32" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G32" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I32" s="15"/>
       <c r="J32" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K32" s="15" t="s">
         <v>41</v>
@@ -8150,32 +8150,32 @@
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1">
       <c r="A33" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B33" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="D33" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="C33" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F33" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H33" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G33" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H33" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K33" s="15" t="s">
         <v>41</v>
@@ -8189,32 +8189,32 @@
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1">
       <c r="A34" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B34" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>298</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F34" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H34" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G34" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I34" s="15"/>
       <c r="J34" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K34" s="15" t="s">
         <v>41</v>
@@ -8228,32 +8228,32 @@
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1">
       <c r="A35" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B35" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>299</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="C35" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F35" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H35" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G35" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H35" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K35" s="15" t="s">
         <v>41</v>
@@ -8267,32 +8267,32 @@
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1">
       <c r="A36" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B36" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="D36" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>304</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>305</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F36" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G36" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I36" s="15"/>
       <c r="J36" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K36" s="15" t="s">
         <v>41</v>
@@ -8306,32 +8306,32 @@
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1">
       <c r="A37" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B37" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="D37" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="C37" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F37" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H37" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G37" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K37" s="15" t="s">
         <v>41</v>
@@ -8345,32 +8345,32 @@
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1">
       <c r="A38" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="C38" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="D38" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F38" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H38" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H38" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K38" s="15" t="s">
         <v>41</v>
@@ -8384,32 +8384,32 @@
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1">
       <c r="A39" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F39" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H39" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G39" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H39" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K39" s="15" t="s">
         <v>41</v>
@@ -8423,32 +8423,32 @@
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1">
       <c r="A40" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B40" s="15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>315</v>
+      </c>
+      <c r="D40" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>317</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F40" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H40" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G40" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H40" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K40" s="15" t="s">
         <v>41</v>
@@ -8462,32 +8462,32 @@
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1">
       <c r="A41" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B41" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D41" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F41" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H41" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G41" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H41" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K41" s="15" t="s">
         <v>41</v>
@@ -8501,32 +8501,32 @@
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1">
       <c r="A42" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B42" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>322</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>323</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>324</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F42" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H42" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G42" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K42" s="15" t="s">
         <v>41</v>
@@ -8540,32 +8540,32 @@
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1">
       <c r="A43" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B43" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="D43" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>326</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F43" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H43" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G43" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K43" s="15" t="s">
         <v>41</v>
@@ -8579,32 +8579,32 @@
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1">
       <c r="A44" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B44" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D44" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="C44" s="15" t="s">
-        <v>329</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F44" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H44" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G44" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K44" s="15" t="s">
         <v>41</v>
@@ -8618,32 +8618,32 @@
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1">
       <c r="A45" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B45" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="D45" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F45" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G45" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H45" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G45" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H45" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K45" s="15" t="s">
         <v>41</v>
@@ -8657,32 +8657,32 @@
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1">
       <c r="A46" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B46" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="D46" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F46" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K46" s="15" t="s">
         <v>41</v>
@@ -8696,32 +8696,32 @@
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1">
       <c r="A47" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B47" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>337</v>
-      </c>
-      <c r="C47" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>339</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F47" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G47" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H47" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G47" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K47" s="15" t="s">
         <v>41</v>
@@ -8735,32 +8735,32 @@
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1">
       <c r="A48" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B48" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="D48" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="C48" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F48" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H48" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G48" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H48" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K48" s="15" t="s">
         <v>41</v>
@@ -8774,32 +8774,32 @@
     </row>
     <row r="49" spans="1:13" ht="15" customHeight="1">
       <c r="A49" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B49" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="D49" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="C49" s="15" t="s">
-        <v>344</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F49" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H49" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G49" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H49" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K49" s="15" t="s">
         <v>41</v>
@@ -8813,32 +8813,32 @@
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1">
       <c r="A50" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B50" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="D50" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="C50" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F50" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H50" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G50" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I50" s="15"/>
       <c r="J50" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K50" s="15" t="s">
         <v>41</v>
@@ -8852,32 +8852,32 @@
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1">
       <c r="A51" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B51" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="D51" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="C51" s="15" t="s">
-        <v>350</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>351</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F51" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H51" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G51" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H51" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K51" s="15" t="s">
         <v>41</v>
@@ -8891,32 +8891,32 @@
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1">
       <c r="A52" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B52" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>351</v>
+      </c>
+      <c r="D52" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>353</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F52" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H52" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G52" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H52" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I52" s="15"/>
       <c r="J52" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K52" s="15" t="s">
         <v>41</v>
@@ -8930,32 +8930,32 @@
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1">
       <c r="A53" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B53" s="15" t="s">
+        <v>353</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>354</v>
+      </c>
+      <c r="D53" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="C53" s="15" t="s">
-        <v>356</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F53" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H53" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G53" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H53" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I53" s="15"/>
       <c r="J53" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K53" s="15" t="s">
         <v>41</v>
@@ -8969,32 +8969,32 @@
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1">
       <c r="A54" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B54" s="15" t="s">
+        <v>356</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>357</v>
+      </c>
+      <c r="D54" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="C54" s="15" t="s">
-        <v>359</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F54" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H54" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G54" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I54" s="15"/>
       <c r="J54" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K54" s="15" t="s">
         <v>41</v>
@@ -9008,32 +9008,32 @@
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1">
       <c r="A55" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B55" s="15" t="s">
+        <v>359</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>360</v>
+      </c>
+      <c r="D55" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="C55" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F55" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H55" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G55" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H55" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I55" s="15"/>
       <c r="J55" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K55" s="15" t="s">
         <v>41</v>
@@ -9047,32 +9047,32 @@
     </row>
     <row r="56" spans="1:13" ht="15" customHeight="1">
       <c r="A56" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B56" s="15" t="s">
+        <v>362</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>363</v>
+      </c>
+      <c r="D56" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="C56" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F56" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H56" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H56" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I56" s="15"/>
       <c r="J56" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K56" s="15" t="s">
         <v>41</v>
@@ -9086,32 +9086,32 @@
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1">
       <c r="A57" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B57" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>366</v>
+      </c>
+      <c r="D57" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="C57" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F57" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H57" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G57" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H57" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K57" s="15" t="s">
         <v>41</v>
@@ -9125,32 +9125,32 @@
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1">
       <c r="A58" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B58" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="D58" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="C58" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F58" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H58" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G58" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H58" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I58" s="15"/>
       <c r="J58" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K58" s="15" t="s">
         <v>41</v>
@@ -9164,32 +9164,32 @@
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1">
       <c r="A59" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B59" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>372</v>
+      </c>
+      <c r="D59" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="C59" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="D59" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F59" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H59" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G59" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H59" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I59" s="15"/>
       <c r="J59" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K59" s="15" t="s">
         <v>41</v>
@@ -9203,32 +9203,32 @@
     </row>
     <row r="60" spans="1:13" ht="15" customHeight="1">
       <c r="A60" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B60" s="15" t="s">
+        <v>374</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="D60" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="C60" s="15" t="s">
-        <v>377</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F60" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H60" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H60" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I60" s="15"/>
       <c r="J60" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K60" s="15" t="s">
         <v>41</v>
@@ -9242,32 +9242,32 @@
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1">
       <c r="A61" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B61" s="15" t="s">
+        <v>377</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="D61" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="D61" s="7" t="s">
-        <v>381</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F61" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H61" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H61" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I61" s="15"/>
       <c r="J61" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K61" s="15" t="s">
         <v>41</v>
@@ -9281,32 +9281,32 @@
     </row>
     <row r="62" spans="1:13" ht="15" customHeight="1">
       <c r="A62" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B62" s="15" t="s">
+        <v>380</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>381</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>383</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="E62" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F62" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H62" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G62" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H62" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I62" s="15"/>
       <c r="J62" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K62" s="15" t="s">
         <v>41</v>
@@ -9320,32 +9320,32 @@
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1">
       <c r="A63" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B63" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>384</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>386</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>387</v>
       </c>
       <c r="E63" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F63" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H63" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H63" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I63" s="15"/>
       <c r="J63" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K63" s="15" t="s">
         <v>41</v>
@@ -9359,32 +9359,32 @@
     </row>
     <row r="64" spans="1:13" ht="15" customHeight="1">
       <c r="A64" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B64" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="C64" s="15" t="s">
-        <v>389</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>390</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F64" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H64" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G64" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I64" s="15"/>
       <c r="J64" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K64" s="15" t="s">
         <v>41</v>
@@ -9398,32 +9398,32 @@
     </row>
     <row r="65" spans="1:13" ht="15" customHeight="1">
       <c r="A65" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B65" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="D65" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>392</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F65" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H65" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G65" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H65" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I65" s="15"/>
       <c r="J65" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K65" s="15" t="s">
         <v>41</v>
@@ -9437,32 +9437,32 @@
     </row>
     <row r="66" spans="1:13" ht="15" customHeight="1">
       <c r="A66" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B66" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="D66" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F66" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H66" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I66" s="15"/>
       <c r="J66" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K66" s="15" t="s">
         <v>41</v>
@@ -9476,32 +9476,32 @@
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1">
       <c r="A67" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B67" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="D67" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="C67" s="15" t="s">
-        <v>398</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>399</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F67" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H67" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I67" s="15"/>
       <c r="J67" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K67" s="15" t="s">
         <v>41</v>
@@ -9515,32 +9515,32 @@
     </row>
     <row r="68" spans="1:13" ht="15" customHeight="1">
       <c r="A68" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B68" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="D68" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="C68" s="15" t="s">
-        <v>401</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="E68" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F68" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H68" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G68" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H68" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I68" s="15"/>
       <c r="J68" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K68" s="15" t="s">
         <v>41</v>
@@ -9554,32 +9554,32 @@
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1">
       <c r="A69" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B69" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="D69" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="C69" s="15" t="s">
-        <v>404</v>
-      </c>
-      <c r="D69" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="E69" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F69" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H69" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G69" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H69" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I69" s="15"/>
       <c r="J69" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K69" s="15" t="s">
         <v>41</v>
@@ -9593,32 +9593,32 @@
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1">
       <c r="A70" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B70" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="D70" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="C70" s="15" t="s">
-        <v>407</v>
-      </c>
-      <c r="D70" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="E70" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F70" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H70" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G70" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H70" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I70" s="15"/>
       <c r="J70" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K70" s="15" t="s">
         <v>41</v>
@@ -9632,32 +9632,32 @@
     </row>
     <row r="71" spans="1:13" ht="15" customHeight="1">
       <c r="A71" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B71" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="C71" s="15" t="s">
-        <v>410</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="E71" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F71" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H71" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G71" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H71" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I71" s="15"/>
       <c r="J71" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K71" s="15" t="s">
         <v>41</v>
@@ -9671,32 +9671,32 @@
     </row>
     <row r="72" spans="1:13" ht="15" customHeight="1">
       <c r="A72" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B72" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="C72" s="15" t="s">
-        <v>413</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="E72" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F72" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G72" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H72" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H72" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I72" s="15"/>
       <c r="J72" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K72" s="15" t="s">
         <v>41</v>
@@ -9710,32 +9710,32 @@
     </row>
     <row r="73" spans="1:13" ht="15" customHeight="1">
       <c r="A73" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B73" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="D73" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="C73" s="15" t="s">
-        <v>416</v>
-      </c>
-      <c r="D73" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F73" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G73" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H73" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G73" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H73" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I73" s="15"/>
       <c r="J73" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K73" s="15" t="s">
         <v>41</v>
@@ -9749,32 +9749,32 @@
     </row>
     <row r="74" spans="1:13" ht="15" customHeight="1">
       <c r="A74" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B74" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="C74" s="15" t="s">
-        <v>419</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="E74" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F74" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H74" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G74" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H74" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I74" s="15"/>
       <c r="J74" s="15" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K74" s="15" t="s">
         <v>41</v>
@@ -9788,32 +9788,32 @@
     </row>
     <row r="75" spans="1:13" ht="15" customHeight="1">
       <c r="A75" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="D75" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="B75" s="15" t="s">
-        <v>195</v>
-      </c>
-      <c r="C75" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="D75" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="E75" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F75" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H75" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H75" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I75" s="15"/>
       <c r="J75" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K75" s="15" t="s">
         <v>41</v>
@@ -9827,32 +9827,32 @@
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1">
       <c r="A76" s="15" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F76" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H76" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G76" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H76" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I76" s="15"/>
       <c r="J76" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K76" s="15" t="s">
         <v>41</v>
@@ -9866,32 +9866,32 @@
     </row>
     <row r="77" spans="1:13" ht="15" customHeight="1">
       <c r="A77" s="15" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F77" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H77" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G77" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H77" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I77" s="15"/>
       <c r="J77" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K77" s="15" t="s">
         <v>41</v>
@@ -9905,32 +9905,32 @@
     </row>
     <row r="78" spans="1:13" ht="15" customHeight="1">
       <c r="A78" s="15" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F78" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H78" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G78" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H78" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I78" s="15"/>
       <c r="J78" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K78" s="15" t="s">
         <v>41</v>
@@ -9944,32 +9944,32 @@
     </row>
     <row r="79" spans="1:13" ht="15" customHeight="1">
       <c r="A79" s="15" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F79" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H79" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G79" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H79" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I79" s="15"/>
       <c r="J79" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K79" s="15" t="s">
         <v>41</v>
@@ -9983,32 +9983,32 @@
     </row>
     <row r="80" spans="1:13" ht="15" customHeight="1">
       <c r="A80" s="15" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E80" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F80" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H80" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G80" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H80" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I80" s="15"/>
       <c r="J80" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K80" s="15" t="s">
         <v>41</v>
@@ -10022,32 +10022,32 @@
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1">
       <c r="A81" s="15" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E81" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F81" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H81" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G81" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H81" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I81" s="15"/>
       <c r="J81" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K81" s="15" t="s">
         <v>41</v>
@@ -10061,32 +10061,32 @@
     </row>
     <row r="82" spans="1:13" ht="15" customHeight="1">
       <c r="A82" s="15" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E82" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F82" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H82" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G82" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H82" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I82" s="15"/>
       <c r="J82" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K82" s="15" t="s">
         <v>41</v>
@@ -10100,32 +10100,32 @@
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1">
       <c r="A83" s="15" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E83" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F83" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="H83" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>199</v>
-      </c>
-      <c r="H83" s="15" t="s">
-        <v>200</v>
       </c>
       <c r="I83" s="15"/>
       <c r="J83" s="15" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K83" s="15" t="s">
         <v>41</v>
@@ -10303,44 +10303,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>443</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>445</v>
-      </c>
       <c r="D4" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -10397,7 +10397,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B2" s="2" t="b">
         <f>TRUE()</f>
@@ -10412,7 +10412,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B3" s="2" t="b">
         <f>FALSE()</f>
@@ -10427,7 +10427,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B4" s="2" t="b">
         <f>TRUE()</f>
@@ -10442,7 +10442,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B5" s="2" t="b">
         <f>FALSE()</f>
@@ -10457,7 +10457,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B6" s="2" t="b">
         <f>TRUE()</f>
@@ -10472,7 +10472,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B7" s="2" t="b">
         <f>FALSE()</f>
@@ -10487,7 +10487,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B8" s="2" t="b">
         <f>TRUE()</f>
@@ -10502,7 +10502,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B9" s="2" t="b">
         <f>FALSE()</f>
@@ -10517,7 +10517,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B10" s="2" t="b">
         <f>TRUE()</f>
@@ -10532,7 +10532,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B11" s="2" t="b">
         <f>FALSE()</f>
@@ -10547,7 +10547,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B12" s="2" t="b">
         <f>TRUE()</f>
@@ -10562,7 +10562,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B13" s="2" t="b">
         <f>FALSE()</f>
@@ -10577,7 +10577,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B14" s="2" t="b">
         <f>TRUE()</f>
@@ -10592,7 +10592,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B15" s="2" t="b">
         <f>FALSE()</f>
@@ -10607,7 +10607,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B16" s="2" t="b">
         <f>TRUE()</f>
@@ -10622,7 +10622,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B17" s="2" t="b">
         <f>FALSE()</f>
@@ -10637,7 +10637,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B18" s="2" t="b">
         <f>TRUE()</f>
@@ -10652,7 +10652,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B19" s="2" t="b">
         <f>FALSE()</f>
@@ -10704,7 +10704,7 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="17" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>157</v>
@@ -10715,134 +10715,134 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="17" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="17" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -10871,9 +10871,7 @@
   </sheetPr>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>

--- a/data/sra_metadata/SRP199742_SLX15025_GEP00010.xlsx
+++ b/data/sra_metadata/SRP199742_SLX15025_GEP00010.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="16680" tabRatio="736"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="16680" tabRatio="736" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="10" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1284" uniqueCount="473">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="458">
   <si>
     <t>description</t>
   </si>
@@ -320,51 +320,6 @@
   </si>
   <si>
     <t>Tab name</t>
-  </si>
-  <si>
-    <t>G11</t>
-  </si>
-  <si>
-    <t>G12</t>
-  </si>
-  <si>
-    <t>H1</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>H3</t>
-  </si>
-  <si>
-    <t>H4</t>
-  </si>
-  <si>
-    <t>H5</t>
-  </si>
-  <si>
-    <t>H6</t>
-  </si>
-  <si>
-    <t>H7</t>
-  </si>
-  <si>
-    <t>H8</t>
-  </si>
-  <si>
-    <t>H9</t>
-  </si>
-  <si>
-    <t>H10</t>
-  </si>
-  <si>
-    <t>H11</t>
-  </si>
-  <si>
-    <t>H12</t>
-  </si>
-  <si>
-    <t>plate_01</t>
   </si>
   <si>
     <t>sequencing_dna_source</t>
@@ -5639,7 +5594,7 @@
   </sheetPr>
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
@@ -5653,21 +5608,21 @@
   <sheetData>
     <row r="1" spans="1:3" ht="32">
       <c r="A1" s="20" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" ht="20">
       <c r="A2" s="21" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
     </row>
     <row r="3" spans="1:3" ht="18">
       <c r="A3" s="22" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="B3" s="22"/>
       <c r="C3" s="22"/>
@@ -5696,20 +5651,20 @@
         <v>2</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>80</v>
@@ -5717,7 +5672,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="B9" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>53</v>
@@ -5725,7 +5680,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="B10" s="3" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>54</v>
@@ -5733,7 +5688,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="B11" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>55</v>
@@ -5741,7 +5696,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="B12" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>56</v>
@@ -5750,10 +5705,10 @@
     <row r="13" spans="1:3" ht="15">
       <c r="A13" s="11"/>
       <c r="B13" s="11" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="6" customFormat="1" ht="18" customHeight="1">
@@ -5773,7 +5728,7 @@
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="10" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -5781,7 +5736,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -5789,7 +5744,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -5802,34 +5757,34 @@
     </row>
     <row r="19" spans="1:3">
       <c r="B19" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="B20" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="B21" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -5853,10 +5808,10 @@
     </row>
     <row r="25" spans="1:3">
       <c r="B25" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -5864,7 +5819,7 @@
         <v>4</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -5888,7 +5843,7 @@
         <v>11</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -5896,12 +5851,12 @@
         <v>12</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="B31" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>65</v>
@@ -5962,7 +5917,7 @@
         <v>10</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15">
@@ -5971,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -5987,18 +5942,18 @@
     </row>
     <row r="41" spans="1:3" ht="30">
       <c r="A41" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="B42" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -6014,23 +5969,23 @@
         <v>27</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="B45" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" s="3" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -6038,15 +5993,15 @@
         <v>28</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="B48" s="3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -6054,7 +6009,7 @@
         <v>20</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -6062,7 +6017,7 @@
         <v>22</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -6070,7 +6025,7 @@
         <v>21</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -6078,7 +6033,7 @@
         <v>25</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -6128,7 +6083,7 @@
         <v>24</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -6136,7 +6091,7 @@
         <v>23</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -6155,23 +6110,23 @@
         <v>51</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" customHeight="1">
       <c r="B64" s="3" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="B65" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -6179,15 +6134,15 @@
         <v>26</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>151</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="B67" s="3" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -6214,7 +6169,7 @@
         <v>4</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -6254,34 +6209,34 @@
     </row>
     <row r="75" spans="1:3" ht="30">
       <c r="A75" s="1" t="s">
-        <v>471</v>
+        <v>456</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>472</v>
+        <v>457</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="B76" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="B77" s="9" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="B78" s="9" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -6321,7 +6276,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6344,36 +6299,36 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2">
         <v>16</v>
@@ -6388,18 +6343,18 @@
         <v>31</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
@@ -6414,18 +6369,18 @@
         <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D4" s="2">
         <v>4</v>
@@ -6440,7 +6395,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -6506,30 +6461,30 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="E2" s="2">
         <v>90</v>
@@ -6538,18 +6493,18 @@
         <v>1</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="E3" s="2">
         <v>100</v>
@@ -6558,18 +6513,18 @@
         <v>21</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="E4" s="2">
         <v>100</v>
@@ -6578,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -6634,7 +6589,7 @@
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
@@ -6652,7 +6607,7 @@
         <v>12</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>13</v>
@@ -6681,13 +6636,13 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2">
         <v>53704225</v>
@@ -6702,7 +6657,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="14" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="I2" s="2">
         <v>53704130</v>
@@ -6711,7 +6666,7 @@
         <v>53704148</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="L2" s="19">
         <v>53704291</v>
@@ -6720,18 +6675,18 @@
         <v>53704310</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D3" s="2">
         <v>65637008</v>
@@ -6746,7 +6701,7 @@
         <v>1</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="I3" s="2">
         <v>65637123</v>
@@ -6755,7 +6710,7 @@
         <v>65637142</v>
       </c>
       <c r="K3" s="14" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="L3" s="2">
         <v>65637077</v>
@@ -6764,18 +6719,18 @@
         <v>65637096</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="2" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="D4" s="2">
         <v>26481627</v>
@@ -6790,7 +6745,7 @@
         <v>4</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="I4" s="2">
         <v>26481482</v>
@@ -6799,7 +6754,7 @@
         <v>26481500</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="L4" s="2">
         <v>26481710</v>
@@ -6808,7 +6763,7 @@
         <v>26481729</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -6874,7 +6829,7 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
-  <dimension ref="A1:M97"/>
+  <dimension ref="A1:M85"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
@@ -6900,7 +6855,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>19</v>
@@ -6912,13 +6867,13 @@
         <v>28</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>20</v>
@@ -6941,32 +6896,32 @@
     </row>
     <row r="2" spans="1:13" ht="15" customHeight="1">
       <c r="A2" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H2" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I2" s="15"/>
       <c r="J2" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K2" s="15" t="s">
         <v>41</v>
@@ -6980,32 +6935,32 @@
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1">
       <c r="A3" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="E3" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="H3" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I3" s="15"/>
       <c r="J3" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K3" s="15" t="s">
         <v>41</v>
@@ -7019,32 +6974,32 @@
     </row>
     <row r="4" spans="1:13" ht="15" customHeight="1">
       <c r="A4" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I4" s="15"/>
       <c r="J4" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K4" s="15" t="s">
         <v>41</v>
@@ -7058,32 +7013,32 @@
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1">
       <c r="A5" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="E5" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I5" s="15"/>
       <c r="J5" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K5" s="15" t="s">
         <v>41</v>
@@ -7097,32 +7052,32 @@
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1">
       <c r="A6" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>212</v>
+        <v>197</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G6" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I6" s="15"/>
       <c r="J6" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K6" s="15" t="s">
         <v>41</v>
@@ -7136,32 +7091,32 @@
     </row>
     <row r="7" spans="1:13" ht="15" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>215</v>
+        <v>200</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I7" s="15"/>
       <c r="J7" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K7" s="15" t="s">
         <v>41</v>
@@ -7175,32 +7130,32 @@
     </row>
     <row r="8" spans="1:13" ht="15" customHeight="1">
       <c r="A8" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>218</v>
+        <v>203</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="E8" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G8" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K8" s="15" t="s">
         <v>41</v>
@@ -7214,32 +7169,32 @@
     </row>
     <row r="9" spans="1:13" ht="15" customHeight="1">
       <c r="A9" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="E9" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I9" s="15"/>
       <c r="J9" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K9" s="15" t="s">
         <v>41</v>
@@ -7253,32 +7208,32 @@
     </row>
     <row r="10" spans="1:13" ht="15" customHeight="1">
       <c r="A10" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="E10" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I10" s="15"/>
       <c r="J10" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K10" s="15" t="s">
         <v>41</v>
@@ -7292,32 +7247,32 @@
     </row>
     <row r="11" spans="1:13" ht="15" customHeight="1">
       <c r="A11" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="E11" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G11" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K11" s="15" t="s">
         <v>41</v>
@@ -7331,32 +7286,32 @@
     </row>
     <row r="12" spans="1:13" ht="15" customHeight="1">
       <c r="A12" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="E12" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G12" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K12" s="15" t="s">
         <v>41</v>
@@ -7370,32 +7325,32 @@
     </row>
     <row r="13" spans="1:13" ht="15" customHeight="1">
       <c r="A13" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="E13" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G13" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I13" s="15"/>
       <c r="J13" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>41</v>
@@ -7409,32 +7364,32 @@
     </row>
     <row r="14" spans="1:13" ht="15" customHeight="1">
       <c r="A14" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>235</v>
+        <v>220</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="E14" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I14" s="15"/>
       <c r="J14" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K14" s="15" t="s">
         <v>41</v>
@@ -7448,32 +7403,32 @@
     </row>
     <row r="15" spans="1:13" ht="15" customHeight="1">
       <c r="A15" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>239</v>
+        <v>224</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>240</v>
+        <v>225</v>
       </c>
       <c r="E15" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I15" s="15"/>
       <c r="J15" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K15" s="15" t="s">
         <v>41</v>
@@ -7487,32 +7442,32 @@
     </row>
     <row r="16" spans="1:13" ht="15" customHeight="1">
       <c r="A16" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>243</v>
+        <v>228</v>
       </c>
       <c r="E16" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I16" s="15"/>
       <c r="J16" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K16" s="15" t="s">
         <v>41</v>
@@ -7526,32 +7481,32 @@
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1">
       <c r="A17" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="E17" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I17" s="15"/>
       <c r="J17" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K17" s="15" t="s">
         <v>41</v>
@@ -7565,32 +7520,32 @@
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1">
       <c r="A18" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="E18" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G18" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I18" s="15"/>
       <c r="J18" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K18" s="15" t="s">
         <v>41</v>
@@ -7604,32 +7559,32 @@
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1">
       <c r="A19" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>250</v>
+        <v>235</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>251</v>
+        <v>236</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>252</v>
+        <v>237</v>
       </c>
       <c r="E19" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I19" s="15"/>
       <c r="J19" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K19" s="15" t="s">
         <v>41</v>
@@ -7643,32 +7598,32 @@
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1">
       <c r="A20" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>254</v>
+        <v>239</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="E20" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G20" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I20" s="15"/>
       <c r="J20" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K20" s="15" t="s">
         <v>41</v>
@@ -7682,32 +7637,32 @@
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1">
       <c r="A21" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>256</v>
+        <v>241</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="E21" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I21" s="15"/>
       <c r="J21" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K21" s="15" t="s">
         <v>41</v>
@@ -7721,32 +7676,32 @@
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1">
       <c r="A22" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="E22" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I22" s="15"/>
       <c r="J22" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K22" s="15" t="s">
         <v>41</v>
@@ -7760,32 +7715,32 @@
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1">
       <c r="A23" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E23" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I23" s="15"/>
       <c r="J23" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K23" s="15" t="s">
         <v>41</v>
@@ -7799,32 +7754,32 @@
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1">
       <c r="A24" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>265</v>
+        <v>250</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="E24" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I24" s="15"/>
       <c r="J24" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K24" s="15" t="s">
         <v>41</v>
@@ -7838,32 +7793,32 @@
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1">
       <c r="A25" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
       <c r="E25" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I25" s="15"/>
       <c r="J25" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K25" s="15" t="s">
         <v>41</v>
@@ -7877,32 +7832,32 @@
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1">
       <c r="A26" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>272</v>
+        <v>257</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>273</v>
+        <v>258</v>
       </c>
       <c r="E26" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I26" s="15"/>
       <c r="J26" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K26" s="15" t="s">
         <v>41</v>
@@ -7916,32 +7871,32 @@
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1">
       <c r="A27" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>274</v>
+        <v>259</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>275</v>
+        <v>260</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>276</v>
+        <v>261</v>
       </c>
       <c r="E27" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G27" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I27" s="15"/>
       <c r="J27" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K27" s="15" t="s">
         <v>41</v>
@@ -7955,32 +7910,32 @@
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1">
       <c r="A28" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B28" s="15" t="s">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>278</v>
+        <v>263</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="E28" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H28" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I28" s="15"/>
       <c r="J28" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K28" s="15" t="s">
         <v>41</v>
@@ -7994,32 +7949,32 @@
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1">
       <c r="A29" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>280</v>
+        <v>265</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>281</v>
+        <v>266</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>282</v>
+        <v>267</v>
       </c>
       <c r="E29" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H29" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I29" s="15"/>
       <c r="J29" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K29" s="15" t="s">
         <v>41</v>
@@ -8033,32 +7988,32 @@
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1">
       <c r="A30" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="E30" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I30" s="15"/>
       <c r="J30" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K30" s="15" t="s">
         <v>41</v>
@@ -8072,32 +8027,32 @@
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1">
       <c r="A31" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>287</v>
+        <v>272</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>288</v>
+        <v>273</v>
       </c>
       <c r="E31" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H31" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I31" s="15"/>
       <c r="J31" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K31" s="15" t="s">
         <v>41</v>
@@ -8111,32 +8066,32 @@
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1">
       <c r="A32" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>290</v>
+        <v>275</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="E32" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H32" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I32" s="15"/>
       <c r="J32" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K32" s="15" t="s">
         <v>41</v>
@@ -8150,32 +8105,32 @@
     </row>
     <row r="33" spans="1:13" ht="15" customHeight="1">
       <c r="A33" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>292</v>
+        <v>277</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>293</v>
+        <v>278</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="E33" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H33" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I33" s="15"/>
       <c r="J33" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K33" s="15" t="s">
         <v>41</v>
@@ -8189,32 +8144,32 @@
     </row>
     <row r="34" spans="1:13" ht="15" customHeight="1">
       <c r="A34" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="E34" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G34" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I34" s="15"/>
       <c r="J34" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K34" s="15" t="s">
         <v>41</v>
@@ -8228,32 +8183,32 @@
     </row>
     <row r="35" spans="1:13" ht="15" customHeight="1">
       <c r="A35" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>299</v>
+        <v>284</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>300</v>
+        <v>285</v>
       </c>
       <c r="E35" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I35" s="15"/>
       <c r="J35" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K35" s="15" t="s">
         <v>41</v>
@@ -8267,32 +8222,32 @@
     </row>
     <row r="36" spans="1:13" ht="15" customHeight="1">
       <c r="A36" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B36" s="15" t="s">
-        <v>301</v>
+        <v>286</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>302</v>
+        <v>287</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="E36" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I36" s="15"/>
       <c r="J36" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K36" s="15" t="s">
         <v>41</v>
@@ -8306,32 +8261,32 @@
     </row>
     <row r="37" spans="1:13" ht="15" customHeight="1">
       <c r="A37" s="15" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>306</v>
+        <v>291</v>
       </c>
       <c r="E37" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I37" s="15"/>
       <c r="J37" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K37" s="15" t="s">
         <v>41</v>
@@ -8345,32 +8300,32 @@
     </row>
     <row r="38" spans="1:13" ht="15" customHeight="1">
       <c r="A38" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>308</v>
+        <v>293</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>309</v>
+        <v>294</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="E38" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G38" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I38" s="15"/>
       <c r="J38" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K38" s="15" t="s">
         <v>41</v>
@@ -8384,32 +8339,32 @@
     </row>
     <row r="39" spans="1:13" ht="15" customHeight="1">
       <c r="A39" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>311</v>
+        <v>296</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>313</v>
+        <v>298</v>
       </c>
       <c r="E39" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G39" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I39" s="15"/>
       <c r="J39" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K39" s="15" t="s">
         <v>41</v>
@@ -8423,32 +8378,32 @@
     </row>
     <row r="40" spans="1:13" ht="15" customHeight="1">
       <c r="A40" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>314</v>
+        <v>299</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>315</v>
+        <v>300</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="E40" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F40" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I40" s="15"/>
       <c r="J40" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K40" s="15" t="s">
         <v>41</v>
@@ -8462,32 +8417,32 @@
     </row>
     <row r="41" spans="1:13" ht="15" customHeight="1">
       <c r="A41" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="E41" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G41" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I41" s="15"/>
       <c r="J41" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K41" s="15" t="s">
         <v>41</v>
@@ -8501,32 +8456,32 @@
     </row>
     <row r="42" spans="1:13" ht="15" customHeight="1">
       <c r="A42" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D42" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="B42" s="15" t="s">
-        <v>320</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>321</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="E42" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H42" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I42" s="15"/>
       <c r="J42" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K42" s="15" t="s">
         <v>41</v>
@@ -8540,32 +8495,32 @@
     </row>
     <row r="43" spans="1:13" ht="15" customHeight="1">
       <c r="A43" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>323</v>
+        <v>308</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="E43" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G43" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H43" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I43" s="15"/>
       <c r="J43" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K43" s="15" t="s">
         <v>41</v>
@@ -8579,32 +8534,32 @@
     </row>
     <row r="44" spans="1:13" ht="15" customHeight="1">
       <c r="A44" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="E44" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G44" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H44" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I44" s="15"/>
       <c r="J44" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K44" s="15" t="s">
         <v>41</v>
@@ -8618,32 +8573,32 @@
     </row>
     <row r="45" spans="1:13" ht="15" customHeight="1">
       <c r="A45" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="E45" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G45" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I45" s="15"/>
       <c r="J45" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K45" s="15" t="s">
         <v>41</v>
@@ -8657,32 +8612,32 @@
     </row>
     <row r="46" spans="1:13" ht="15" customHeight="1">
       <c r="A46" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>332</v>
+        <v>317</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>333</v>
+        <v>318</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="E46" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G46" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I46" s="15"/>
       <c r="J46" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K46" s="15" t="s">
         <v>41</v>
@@ -8696,32 +8651,32 @@
     </row>
     <row r="47" spans="1:13" ht="15" customHeight="1">
       <c r="A47" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="E47" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G47" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H47" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I47" s="15"/>
       <c r="J47" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K47" s="15" t="s">
         <v>41</v>
@@ -8735,32 +8690,32 @@
     </row>
     <row r="48" spans="1:13" ht="15" customHeight="1">
       <c r="A48" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="E48" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G48" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I48" s="15"/>
       <c r="J48" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K48" s="15" t="s">
         <v>41</v>
@@ -8774,32 +8729,32 @@
     </row>
     <row r="49" spans="1:13" ht="15" customHeight="1">
       <c r="A49" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="E49" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I49" s="15"/>
       <c r="J49" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K49" s="15" t="s">
         <v>41</v>
@@ -8813,32 +8768,32 @@
     </row>
     <row r="50" spans="1:13" ht="15" customHeight="1">
       <c r="A50" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="E50" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G50" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H50" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I50" s="15"/>
       <c r="J50" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K50" s="15" t="s">
         <v>41</v>
@@ -8852,32 +8807,32 @@
     </row>
     <row r="51" spans="1:13" ht="15" customHeight="1">
       <c r="A51" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>349</v>
+        <v>334</v>
       </c>
       <c r="E51" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G51" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I51" s="15"/>
       <c r="J51" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K51" s="15" t="s">
         <v>41</v>
@@ -8891,32 +8846,32 @@
     </row>
     <row r="52" spans="1:13" ht="15" customHeight="1">
       <c r="A52" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="E52" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G52" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I52" s="15"/>
       <c r="J52" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K52" s="15" t="s">
         <v>41</v>
@@ -8930,32 +8885,32 @@
     </row>
     <row r="53" spans="1:13" ht="15" customHeight="1">
       <c r="A53" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="E53" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G53" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I53" s="15"/>
       <c r="J53" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K53" s="15" t="s">
         <v>41</v>
@@ -8969,32 +8924,32 @@
     </row>
     <row r="54" spans="1:13" ht="15" customHeight="1">
       <c r="A54" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="E54" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G54" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I54" s="15"/>
       <c r="J54" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K54" s="15" t="s">
         <v>41</v>
@@ -9008,32 +8963,32 @@
     </row>
     <row r="55" spans="1:13" ht="15" customHeight="1">
       <c r="A55" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="E55" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G55" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H55" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I55" s="15"/>
       <c r="J55" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K55" s="15" t="s">
         <v>41</v>
@@ -9047,32 +9002,32 @@
     </row>
     <row r="56" spans="1:13" ht="15" customHeight="1">
       <c r="A56" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="E56" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H56" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I56" s="15"/>
       <c r="J56" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K56" s="15" t="s">
         <v>41</v>
@@ -9086,32 +9041,32 @@
     </row>
     <row r="57" spans="1:13" ht="15" customHeight="1">
       <c r="A57" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="E57" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H57" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I57" s="15"/>
       <c r="J57" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K57" s="15" t="s">
         <v>41</v>
@@ -9125,32 +9080,32 @@
     </row>
     <row r="58" spans="1:13" ht="15" customHeight="1">
       <c r="A58" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="E58" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G58" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H58" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I58" s="15"/>
       <c r="J58" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K58" s="15" t="s">
         <v>41</v>
@@ -9164,32 +9119,32 @@
     </row>
     <row r="59" spans="1:13" ht="15" customHeight="1">
       <c r="A59" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="E59" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G59" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H59" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I59" s="15"/>
       <c r="J59" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K59" s="15" t="s">
         <v>41</v>
@@ -9203,32 +9158,32 @@
     </row>
     <row r="60" spans="1:13" ht="15" customHeight="1">
       <c r="A60" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="E60" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H60" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I60" s="15"/>
       <c r="J60" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K60" s="15" t="s">
         <v>41</v>
@@ -9242,32 +9197,32 @@
     </row>
     <row r="61" spans="1:13" ht="15" customHeight="1">
       <c r="A61" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="E61" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I61" s="15"/>
       <c r="J61" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K61" s="15" t="s">
         <v>41</v>
@@ -9281,32 +9236,32 @@
     </row>
     <row r="62" spans="1:13" ht="15" customHeight="1">
       <c r="A62" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="E62" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G62" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H62" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I62" s="15"/>
       <c r="J62" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K62" s="15" t="s">
         <v>41</v>
@@ -9320,32 +9275,32 @@
     </row>
     <row r="63" spans="1:13" ht="15" customHeight="1">
       <c r="A63" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="E63" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I63" s="15"/>
       <c r="J63" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K63" s="15" t="s">
         <v>41</v>
@@ -9359,32 +9314,32 @@
     </row>
     <row r="64" spans="1:13" ht="15" customHeight="1">
       <c r="A64" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="E64" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G64" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I64" s="15"/>
       <c r="J64" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K64" s="15" t="s">
         <v>41</v>
@@ -9398,32 +9353,32 @@
     </row>
     <row r="65" spans="1:13" ht="15" customHeight="1">
       <c r="A65" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="E65" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G65" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H65" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I65" s="15"/>
       <c r="J65" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K65" s="15" t="s">
         <v>41</v>
@@ -9437,32 +9392,32 @@
     </row>
     <row r="66" spans="1:13" ht="15" customHeight="1">
       <c r="A66" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="E66" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I66" s="15"/>
       <c r="J66" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K66" s="15" t="s">
         <v>41</v>
@@ -9476,32 +9431,32 @@
     </row>
     <row r="67" spans="1:13" ht="15" customHeight="1">
       <c r="A67" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="E67" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I67" s="15"/>
       <c r="J67" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K67" s="15" t="s">
         <v>41</v>
@@ -9515,32 +9470,32 @@
     </row>
     <row r="68" spans="1:13" ht="15" customHeight="1">
       <c r="A68" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="E68" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F68" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G68" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H68" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I68" s="15"/>
       <c r="J68" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K68" s="15" t="s">
         <v>41</v>
@@ -9554,32 +9509,32 @@
     </row>
     <row r="69" spans="1:13" ht="15" customHeight="1">
       <c r="A69" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="D69" s="7" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="E69" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F69" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G69" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H69" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I69" s="15"/>
       <c r="J69" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K69" s="15" t="s">
         <v>41</v>
@@ -9593,32 +9548,32 @@
     </row>
     <row r="70" spans="1:13" ht="15" customHeight="1">
       <c r="A70" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="D70" s="7" t="s">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="E70" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F70" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G70" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H70" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I70" s="15"/>
       <c r="J70" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K70" s="15" t="s">
         <v>41</v>
@@ -9632,32 +9587,32 @@
     </row>
     <row r="71" spans="1:13" ht="15" customHeight="1">
       <c r="A71" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B71" s="15" t="s">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="D71" s="7" t="s">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="E71" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G71" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I71" s="15"/>
       <c r="J71" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K71" s="15" t="s">
         <v>41</v>
@@ -9671,32 +9626,32 @@
     </row>
     <row r="72" spans="1:13" ht="15" customHeight="1">
       <c r="A72" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="E72" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F72" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H72" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I72" s="15"/>
       <c r="J72" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K72" s="15" t="s">
         <v>41</v>
@@ -9710,32 +9665,32 @@
     </row>
     <row r="73" spans="1:13" ht="15" customHeight="1">
       <c r="A73" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="E73" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G73" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H73" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I73" s="15"/>
       <c r="J73" s="15" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K73" s="15" t="s">
         <v>41</v>
@@ -9749,32 +9704,32 @@
     </row>
     <row r="74" spans="1:13" ht="15" customHeight="1">
       <c r="A74" s="15" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="E74" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F74" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I74" s="15"/>
       <c r="J74" s="15" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="K74" s="15" t="s">
         <v>41</v>
@@ -9788,32 +9743,32 @@
     </row>
     <row r="75" spans="1:13" ht="15" customHeight="1">
       <c r="A75" s="15" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>420</v>
+        <v>405</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="E75" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F75" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H75" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I75" s="15"/>
       <c r="J75" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K75" s="15" t="s">
         <v>41</v>
@@ -9827,32 +9782,32 @@
     </row>
     <row r="76" spans="1:13" ht="15" customHeight="1">
       <c r="A76" s="15" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="E76" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H76" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I76" s="15"/>
       <c r="J76" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K76" s="15" t="s">
         <v>41</v>
@@ -9866,32 +9821,32 @@
     </row>
     <row r="77" spans="1:13" ht="15" customHeight="1">
       <c r="A77" s="15" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>214</v>
+        <v>199</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>424</v>
+        <v>409</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>425</v>
+        <v>410</v>
       </c>
       <c r="E77" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H77" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I77" s="15"/>
       <c r="J77" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K77" s="15" t="s">
         <v>41</v>
@@ -9905,32 +9860,32 @@
     </row>
     <row r="78" spans="1:13" ht="15" customHeight="1">
       <c r="A78" s="15" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="E78" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H78" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I78" s="15"/>
       <c r="J78" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K78" s="15" t="s">
         <v>41</v>
@@ -9944,32 +9899,32 @@
     </row>
     <row r="79" spans="1:13" ht="15" customHeight="1">
       <c r="A79" s="15" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="E79" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H79" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I79" s="15"/>
       <c r="J79" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K79" s="15" t="s">
         <v>41</v>
@@ -9983,32 +9938,32 @@
     </row>
     <row r="80" spans="1:13" ht="15" customHeight="1">
       <c r="A80" s="15" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="E80" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F80" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H80" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I80" s="15"/>
       <c r="J80" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K80" s="15" t="s">
         <v>41</v>
@@ -10022,32 +9977,32 @@
     </row>
     <row r="81" spans="1:13" ht="15" customHeight="1">
       <c r="A81" s="15" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>271</v>
+        <v>256</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="E81" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I81" s="15"/>
       <c r="J81" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K81" s="15" t="s">
         <v>41</v>
@@ -10061,32 +10016,32 @@
     </row>
     <row r="82" spans="1:13" ht="15" customHeight="1">
       <c r="A82" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="B82" s="15" t="s">
+        <v>268</v>
+      </c>
+      <c r="C82" s="15" t="s">
         <v>419</v>
       </c>
-      <c r="B82" s="15" t="s">
-        <v>283</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>434</v>
-      </c>
       <c r="D82" s="7" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="E82" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G82" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H82" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I82" s="15"/>
       <c r="J82" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K82" s="15" t="s">
         <v>41</v>
@@ -10100,32 +10055,32 @@
     </row>
     <row r="83" spans="1:13" ht="15" customHeight="1">
       <c r="A83" s="15" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>295</v>
+        <v>280</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="E83" s="15" t="s">
         <v>45</v>
       </c>
       <c r="F83" s="15" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="H83" s="15" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="I83" s="15"/>
       <c r="J83" s="15" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="K83" s="15" t="s">
         <v>41</v>
@@ -10137,118 +10092,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
-      <c r="A84" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="15" customHeight="1">
-      <c r="A85" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13">
-      <c r="A86" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13">
-      <c r="A87" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13">
-      <c r="A88" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13">
-      <c r="A89" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13">
-      <c r="A90" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13">
-      <c r="A91" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13">
-      <c r="A92" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13">
-      <c r="A93" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13">
-      <c r="A94" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13">
-      <c r="A95" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13">
-      <c r="A96" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
+    <row r="85" spans="1:13" ht="15" customHeight="1"/>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -10289,58 +10133,58 @@
   <sheetData>
     <row r="1" spans="1:4" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>442</v>
+        <v>427</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>441</v>
+        <v>426</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>443</v>
+        <v>428</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>440</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -10397,7 +10241,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B2" s="2" t="b">
         <f>TRUE()</f>
@@ -10412,7 +10256,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B3" s="2" t="b">
         <f>FALSE()</f>
@@ -10427,7 +10271,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B4" s="2" t="b">
         <f>TRUE()</f>
@@ -10442,7 +10286,7 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B5" s="2" t="b">
         <f>FALSE()</f>
@@ -10457,7 +10301,7 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B6" s="2" t="b">
         <f>TRUE()</f>
@@ -10472,7 +10316,7 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B7" s="2" t="b">
         <f>FALSE()</f>
@@ -10487,7 +10331,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B8" s="2" t="b">
         <f>TRUE()</f>
@@ -10502,7 +10346,7 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B9" s="2" t="b">
         <f>FALSE()</f>
@@ -10517,7 +10361,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B10" s="2" t="b">
         <f>TRUE()</f>
@@ -10532,7 +10376,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B11" s="2" t="b">
         <f>FALSE()</f>
@@ -10547,7 +10391,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B12" s="2" t="b">
         <f>TRUE()</f>
@@ -10562,7 +10406,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B13" s="2" t="b">
         <f>FALSE()</f>
@@ -10577,7 +10421,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B14" s="2" t="b">
         <f>TRUE()</f>
@@ -10592,7 +10436,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="B15" s="2" t="b">
         <f>FALSE()</f>
@@ -10607,7 +10451,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B16" s="2" t="b">
         <f>TRUE()</f>
@@ -10622,7 +10466,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>444</v>
+        <v>429</v>
       </c>
       <c r="B17" s="2" t="b">
         <f>FALSE()</f>
@@ -10637,7 +10481,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="2" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B18" s="2" t="b">
         <f>TRUE()</f>
@@ -10652,7 +10496,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="2" t="s">
-        <v>445</v>
+        <v>430</v>
       </c>
       <c r="B19" s="2" t="b">
         <f>FALSE()</f>
@@ -10704,145 +10548,145 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="17" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="17" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>447</v>
+        <v>432</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="17" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>449</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="17" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>450</v>
+        <v>435</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>451</v>
+        <v>436</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="17" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>452</v>
+        <v>437</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>453</v>
+        <v>438</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>454</v>
+        <v>439</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>465</v>
+        <v>450</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>455</v>
+        <v>440</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>456</v>
+        <v>441</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>458</v>
+        <v>443</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>459</v>
+        <v>444</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>467</v>
+        <v>452</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>468</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="17" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>469</v>
+        <v>454</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>460</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="17" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>470</v>
+        <v>455</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>461</v>
+        <v>446</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="17" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -10888,7 +10732,7 @@
   <sheetData>
     <row r="1" spans="1:8" s="3" customFormat="1">
       <c r="A1" s="3" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
@@ -10897,7 +10741,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>8</v>
@@ -10906,7 +10750,7 @@
         <v>25</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -10946,7 +10790,7 @@
         <v>37</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>29</v>

--- a/data/sra_metadata/SRP199742_SLX15025_GEP00010.xlsx
+++ b/data/sra_metadata/SRP199742_SLX15025_GEP00010.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="21721"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="16680" tabRatio="736" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27840" windowHeight="16680" tabRatio="736"/>
   </bookViews>
   <sheets>
     <sheet name="Help" sheetId="10" r:id="rId1"/>
@@ -2130,7 +2130,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> is the list of sequence to count the reads against. If not provided, all sequences above a certain threshold will be considered for counting the reads.   </t>
+      <t xml:space="preserve"> is a list of sequences that the reads are counted against. If looking for particular gene edits, the desired edited sequences should be put in here. If no sequence is provided, the amplicon as identified by the provided primer sequences will be considered for counting reads</t>
     </r>
   </si>
 </sst>
@@ -5594,7 +5594,7 @@
   </sheetPr>
   <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
@@ -6207,7 +6207,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="30">
+    <row r="75" spans="1:3" ht="45">
       <c r="A75" s="1" t="s">
         <v>456</v>
       </c>
@@ -6276,7 +6276,7 @@
   </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
